--- a/dataset/lg/vrushaadhipa.xlsx
+++ b/dataset/lg/vrushaadhipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీగురులింగమూర్తి! సువిశేష మహోజ్జ్వలకీర్తి! సత్క్రియో
 ద్యోగ కళాప్రపూర్తి! యవధూత పునర్భవజార్తి! పాలితా
@@ -477,32 +474,29 @@
 వా! గతి నీవె మాకు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('గు', '|'), ('రు', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('సు', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('మ', '|'), ('హో', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యో', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('క', '|'), ('ళా', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('ర్తి', '|'), ('య', '|'), ('వ', '|'), ('ధూ', 'U'), ('త', '|'), ('పు', '|'), ('న', 'U'), ('ర్భ', '|'), ('వ', '|'), ('జా', 'U'), ('ర్తి', '|'), ('పా', 'U'), ('లి', '|'), ('తా', 'U'), ('భ్యా', 'U'), ('గ', '|'), ('త', '|'), ('సం', 'U'), ('శ్రి', '|'), ('తా', 'U'), ('ర్ధి', '|'), ('క', '|'), ('వి', '|'), ('పం', 'U'), ('డి', '|'), ('త', '|'), ('గా', 'U'), ('య', '|'), ('క', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('దే', 'U'), ('వా', 'U'), ('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('వె', '|'), ('మా', 'U'), ('కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">ప్రమథవిలోల! భక్తపరిపాల ధురంధరశీల! సంతతా
 స్తమిత సమస్తదేహ గుణజాల! సుఖప్రదలీల! లింగ జం
@@ -510,32 +504,29 @@
 వ మము భరింపుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!	</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('భ', 'U'), ('క్త', '|'), ('ప', '|'), ('రి', '|'), ('పా', 'U'), ('ల', '|'), ('ధు', '|'), ('రం', 'U'), ('ధ', '|'), ('ర', '|'), ('శీ', 'U'), ('ల', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('స్త', '|'), ('మి', '|'), ('త', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('దే', 'U'), ('హ', '|'), ('గు', '|'), ('ణ', '|'), ('జా', 'U'), ('ల', '|'), ('సు', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('ద', '|'), ('లీ', 'U'), ('ల', '|'), ('లిం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('మ', '|'), ('హి', '|'), ('మా', 'U'), ('ను', '|'), ('పా', 'U'), ('ల', '|'), ('గ', '|'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('నా', 'U'), ('ద', '|'), ('మూ', 'U'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('మ', '|'), ('ము', '|'), ('భ', '|'), ('రిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>అప్రతిమప్రతాప! సముదంచిత నాదకళాకలాప! దీ
 ప్త ప్రమథస్వరూప! శివభక్తగణాత్మ గతప్రదీప! ధూ
@@ -543,32 +534,29 @@
 త్త్వప్రద! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మ', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చి', '|'), ('త', '|'), ('నా', 'U'), ('ద', '|'), ('క', '|'), ('ళా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('దీ', 'U'), ('ప్త', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థ', 'U'), ('స్వ', '|'), ('రూ', 'U'), ('ప', '|'), ('శి', '|'), ('వ', '|'), ('భ', 'U'), ('క్త', '|'), ('గ', '|'), ('ణా', 'U'), ('త్మ', '|'), ('గ', '|'), ('త', 'U'), ('ప్ర', '|'), ('దీ', 'U'), ('ప', '|'), ('ధూ', 'U'), ('త', 'U'), ('ప్ర', '|'), ('బ', '|'), ('లే', 'U'), ('క్షు', '|'), ('చా', 'U'), ('ప', '|'), ('వి', '|'), ('గ', '|'), ('త', 'U'), ('ప్ర', '|'), ('క', '|'), ('టా', 'U'), ('ఖి', '|'), ('ల', '|'), ('పా', 'U'), ('ప', '|'), ('లిం', 'U'), ('గ', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('ప్ర', '|'), ('ద', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>భక్తిరసాభిషిక్త! భవపాశవితాన విముక్త! జంగమా
 సక్త! దయాభిషిక్త! తనుసంగతసౌఖ్యవిరక్త! సంతతో
@@ -576,32 +564,29 @@
 వ్యక్తమ నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('క్తి', '|'), ('ర', '|'), ('సా', 'U'), ('భి', '|'), ('షి', 'U'), ('క్త', '|'), ('భ', '|'), ('వ', '|'), ('పా', 'U'), ('శ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('స', 'U'), ('క్త', '|'), ('ద', '|'), ('యా', 'U'), ('భి', '|'), ('షి', 'U'), ('క్త', '|'), ('త', '|'), ('ను', '|'), ('సం', 'U'), ('గ', '|'), ('త', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('వి', '|'), ('ర', 'U'), ('క్త', '|'), ('సం', 'U'), ('త', '|'), ('తో', 'U'), ('ద్యు', 'U'), ('క్త', '|'), ('గు', '|'), ('ణా', 'U'), ('ను', '|'), ('ర', 'U'), ('క్త', '|'), ('ప', '|'), ('రి', '|'), ('తో', 'U'), ('షి', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('శి', '|'), ('వై', 'U'), ('క్య', '|'), ('యు', 'U'), ('క్త', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>శత్రు లతాలవిత్ర! గుణజైత్ర! భవాబ్ధివహిత్ర! జంగమ
 క్షేత్రవిచిత్ర! సూత్ర బుధగీత చరిత్ర! శిలాదపుత్ర! స
@@ -609,32 +594,29 @@
 స్వత్త్రిజగత్పవిత్ర బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('శ', 'U'), ('త్రు', '|'), ('ల', '|'), ('తా', 'U'), ('ల', '|'), ('వి', 'U'), ('త్ర', '|'), ('గు', '|'), ('ణ', '|'), ('జై', 'U'), ('త్ర', '|'), ('భ', '|'), ('వా', 'U'), ('బ్ధి', '|'), ('వ', '|'), ('హి', 'U'), ('త్ర', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('వి', '|'), ('చి', 'U'), ('త్ర', '|'), ('సూ', 'U'), ('త్ర', '|'), ('బు', '|'), ('ధ', '|'), ('గీ', 'U'), ('త', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('శి', '|'), ('లా', 'U'), ('ద', '|'), ('పు', 'U'), ('త్ర', '|'), ('స', 'U'), ('త్పా', 'U'), ('త్ర', '|'), ('వి', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('గా', 'U'), ('త్ర', '|'), ('శి', '|'), ('వ', '|'), ('భ', 'U'), ('క్తి', '|'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>త్ర్యక్షసదృక్ష! సంచితదయాక్ష! శివాత్మక దీక్ష! సత్ప్రసా
 దాక్ష! ప్రతాప శిక్షిత మహాప్రతిపక్ష! మహోక్ష! భూరి క
@@ -642,32 +624,29 @@
 త్త్వక్షమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('త్ర్య', 'U'), ('క్ష', '|'), ('స', '|'), ('దృ', 'U'), ('క్ష', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('ద', '|'), ('యా', 'U'), ('క్ష', '|'), ('శి', '|'), ('వా', 'U'), ('త్మ', '|'), ('క', '|'), ('దీ', 'U'), ('క్ష', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('దా', 'U'), ('క్ష', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('ప', '|'), ('శి', 'U'), ('క్షి', '|'), ('త', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('తి', '|'), ('ప', 'U'), ('క్ష', '|'), ('మ', '|'), ('హో', 'U'), ('క్ష', '|'), ('భూ', 'U'), ('రి', '|'), ('క', '|'), ('ర్మ', 'U'), ('క్ష', '|'), ('య', '|'), ('ద', 'U'), ('క్ష', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('స', '|'), ('మ', 'U'), ('క్ష', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('ప', '|'), ('రో', 'U'), ('క్ష', '|'), ('లిం', 'U'), ('గ', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('క్ష', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>అక్షయభక్తిపక్ష! బసవాక్షర పాఠక కల్పవృక్ష! రు
 ద్రాక్ష విభూతిపక్ష! ఫలితార్థ ముముక్ష! శివప్రయుక్త ఫా
@@ -675,32 +654,29 @@
 త్త్వక్షమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్ష', '|'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ప', 'U'), ('క్ష', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('క్ష', '|'), ('ర', '|'), ('పా', 'U'), ('ఠ', '|'), ('క', '|'), ('క', 'U'), ('ల్ప', '|'), ('వృ', 'U'), ('క్ష', '|'), ('రు', '|'), ('ద్రా', 'U'), ('క్ష', '|'), ('వి', '|'), ('భూ', 'U'), ('తి', '|'), ('ప', 'U'), ('క్ష', '|'), ('ఫ', '|'), ('లి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ము', '|'), ('ము', 'U'), ('క్ష', '|'), ('శి', '|'), ('వ', 'U'), ('ప్ర', '|'), ('యు', 'U'), ('క్త', '|'), ('ఫా', 'U'), ('లా', 'U'), ('క్ష', '|'), ('కృ', '|'), ('పా', 'U'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('శు', '|'), ('భా', 'U'), ('శు', '|'), ('భ', '|'), ('పా', 'U'), ('శ', '|'), ('మో', 'U'), ('క్ష', '|'), ('త', 'U'), ('త్త్వ', 'U'), ('క్ష', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>ఆర్య వితానవర్య! భువనాదిక శౌర్య! యుదాత్త సత్పదా
 చార్య! యవార్యవీర్య! బుధసన్నుతచర్య! విశేష భక్తి తా
@@ -708,32 +684,29 @@
 ర్వార్య యనూన ధైర్య! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ర్య', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('వ', 'U'), ('ర్య', '|'), ('భు', '|'), ('వ', '|'), ('నా', 'U'), ('ది', '|'), ('క', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('యు', '|'), ('దా', 'U'), ('త్త', '|'), ('స', 'U'), ('త్ప', '|'), ('దా', 'U'), ('చా', 'U'), ('ర్య', '|'), ('య', '|'), ('వా', 'U'), ('ర్య', '|'), ('వీ', 'U'), ('ర్య', '|'), ('బు', '|'), ('ధ', '|'), ('స', 'U'), ('న్ను', '|'), ('త', '|'), ('చ', 'U'), ('ర్య', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('భ', 'U'), ('క్తి', '|'), ('తా', 'U'), ('త్ప', 'U'), ('ర్య', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('ధు', 'U'), ('ర్య', '|'), ('ప', '|'), ('రి', '|'), ('పా', 'U'), ('లి', '|'), ('త', '|'), ('తు', 'U'), ('ర్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర్య', '|'), ('య', '|'), ('నూ', 'U'), ('న', '|'), ('ధై', 'U'), ('ర్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>తజ్ఞ! జితప్రతిజ్ఞ! యుచిత ప్రమథానుగతజ్ఞ! నమ్ర దై
 వజ్ఞ! కళావిధిజ్ఞ! బలవచ్ఛివభక్తి మనోజ్ఞ! ధూతశా
@@ -741,32 +714,29 @@
 ర్వజ్ఞ! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('జ్ఞ', '|'), ('జి', '|'), ('త', 'U'), ('ప్ర', '|'), ('తి', 'U'), ('జ్ఞ', '|'), ('యు', '|'), ('చి', '|'), ('త', 'U'), ('ప్ర', '|'), ('మ', '|'), ('థా', 'U'), ('ను', '|'), ('గ', '|'), ('త', 'U'), ('జ్ఞ', '|'), ('న', '|'), ('మ్ర', '|'), ('దై', 'U'), ('వ', 'U'), ('జ్ఞ', '|'), ('క', '|'), ('ళా', 'U'), ('వి', '|'), ('ధి', 'U'), ('జ్ఞ', '|'), ('బ', '|'), ('ల', '|'), ('వ', 'U'), ('చ్ఛి', '|'), ('వ', '|'), ('భ', 'U'), ('క్తి', '|'), ('మ', '|'), ('నో', 'U'), ('జ్ఞ', '|'), ('ధూ', 'U'), ('త', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('జ్ఞ', '|'), ('సు', '|'), ('వా', 'U'), ('ద', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('తృ', '|'), ('ణీ', 'U'), ('కృ', '|'), ('త', '|'), ('పం', 'U'), ('చ', '|'), ('య', 'U'), ('జ్ఞ', '|'), ('స', 'U'), ('ర్వ', 'U'), ('జ్ఞ', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>క్షీణజనప్రమాణ! యసికృత్త కుయంత్రక ఘోణ! జంగమ
 ప్రాణ! వినిర్జిత ప్రసవబాణ! సమంచిత భక్తియోగ సం
@@ -774,32 +744,29 @@
 ర్వాణ! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('క్షీ', 'U'), ('ణ', '|'), ('జ', '|'), ('న', 'U'), ('ప్ర', '|'), ('మా', 'U'), ('ణ', '|'), ('య', '|'), ('సి', '|'), ('కృ', 'U'), ('త్త', '|'), ('కు', '|'), ('యం', 'U'), ('త్ర', '|'), ('క', '|'), ('ఘో', 'U'), ('ణ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('వి', '|'), ('ని', 'U'), ('ర్జి', '|'), ('త', 'U'), ('ప్ర', '|'), ('స', '|'), ('వ', '|'), ('బా', 'U'), ('ణ', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('యో', 'U'), ('గ', '|'), ('సం', 'U'), ('త్రా', 'U'), ('ణ', '|'), ('క', '|'), ('ళా', 'U'), ('ప్ర', '|'), ('వీ', 'U'), ('ణ', '|'), ('శి', '|'), ('వ', '|'), ('ధ', '|'), ('ర్మ', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('ద', 'U'), ('త్త', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>గానరసప్రవీణ! గతకాల వితాన! సమస్త భక్తస
 న్మాన! మహాకులీన! యసమాన చరాచర రూపభేద సం
@@ -807,32 +774,29 @@
 వా ననుఁ గావుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('గా', 'U'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('ప్ర', '|'), ('వీ', 'U'), ('ణ', '|'), ('గ', '|'), ('త', '|'), ('కా', 'U'), ('ల', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భ', 'U'), ('క్త', '|'), ('స', 'U'), ('న్మా', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('కు', '|'), ('లీ', 'U'), ('న', '|'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('చ', '|'), ('రా', 'U'), ('చ', '|'), ('ర', '|'), ('రూ', 'U'), ('ప', '|'), ('భే', 'U'), ('ద', '|'), ('సం', 'U'), ('ధా', 'U'), ('న', '|'), ('జి', '|'), ('తా', 'U'), ('భి', '|'), ('మా', 'U'), ('న', '|'), ('త', '|'), ('ను', '|'), ('ధ', '|'), ('ర్మ', '|'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('దా', 'U'), ('న', '|'), ('దే', 'U'), ('వా', 'U'), ('న', '|'), ('ను', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>లింగమయాంతరంగ! గురులింగ పదాంబుజ భృంగ! సత్ప్రసా
 దాంగ! కృపాపరిస్ఫురదపాంగ! విముక్త భుజంగ! జంగమో
@@ -840,32 +804,29 @@
 వంగడ మేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('లిం', 'U'), ('గ', '|'), ('మ', '|'), ('యాం', 'U'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('గు', '|'), ('రు', '|'), ('లిం', 'U'), ('గ', '|'), ('ప', '|'), ('దాం', 'U'), ('బు', '|'), ('జ', '|'), ('భృం', 'U'), ('గ', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('దాం', 'U'), ('గ', '|'), ('కృ', '|'), ('పా', 'U'), ('ప', '|'), ('రి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('పాం', 'U'), ('గ', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మో', 'U'), ('త్తుం', 'U'), ('గ', '|'), ('జి', '|'), ('తా', 'U'), ('భి', '|'), ('షం', 'U'), ('గ', '|'), ('గ', '|'), ('త', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('త', '|'), ('భం', 'U'), ('గ', '|'), ('మ', '|'), ('దీ', 'U'), ('య', '|'), ('లిం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>ఉత్తమ భక్తివృత్త! భజనోత్సుకచిత్త! యుదాత్త చిత్సుఖా
 యత్త! క్రియాప్రమత్త! నిఖిలాగమవేత్త! గుణోపయుక్త స
@@ -873,32 +834,29 @@
 స్వత్తమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('వృ', 'U'), ('త్త', '|'), ('భ', '|'), ('జ', '|'), ('నో', 'U'), ('త్సు', '|'), ('క', '|'), ('చి', 'U'), ('త్త', '|'), ('యు', '|'), ('దా', 'U'), ('త్త', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖా', 'U'), ('య', 'U'), ('త్త', 'U'), ('క్రి', '|'), ('యా', 'U'), ('ప్ర', '|'), ('మ', 'U'), ('త్త', '|'), ('ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('గ', '|'), ('మ', '|'), ('వే', 'U'), ('త్త', '|'), ('గు', '|'), ('ణో', 'U'), ('ప', '|'), ('యు', 'U'), ('క్త', '|'), ('స', 'U'), ('ద్వృ', 'U'), ('త్త', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('భో', 'U'), ('గ', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('సు', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('మ', 'U'), ('త్త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్త', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>దేహజవైరివాహ! శివదీపితదేహ! సుఖప్రవాహ! ని
 ర్మోహ! వినమ్ర సంయమిసమూహ! లసద్గుణగేహ! సంతతో
@@ -906,32 +864,29 @@
 ర్వాహమ నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('హ', '|'), ('జ', '|'), ('వై', 'U'), ('రి', '|'), ('వా', 'U'), ('హ', '|'), ('శి', '|'), ('వ', '|'), ('దీ', 'U'), ('పి', '|'), ('త', '|'), ('దే', 'U'), ('హ', '|'), ('సు', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('హ', '|'), ('ని', '|'), ('ర్మో', 'U'), ('హ', '|'), ('వి', '|'), ('న', '|'), ('మ్ర', '|'), ('సం', 'U'), ('య', '|'), ('మి', '|'), ('స', '|'), ('మూ', 'U'), ('హ', '|'), ('ల', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('గే', 'U'), ('హ', '|'), ('సం', 'U'), ('త', '|'), ('తో', 'U'), ('త్సా', 'U'), ('హ', '|'), ('ని', '|'), ('రీ', 'U'), ('హ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('వి', '|'), ('తా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('వి', '|'), ('హి', '|'), ('తా', 'U'), ('వ', '|'), ('గా', 'U'), ('హ', '|'), ('ని', 'U'), ('ర్వా', 'U'), ('హ', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>న్యాసఫలానివాస! దరహాస ముఖప్రతిభాస! దత్తకై
 లాస! విశేష జంగమవిలాస! శివైక్య సమాస! నిర్జితా
@@ -939,32 +894,29 @@
 వ్యాస! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('న్యా', 'U'), ('స', '|'), ('ఫ', '|'), ('లా', 'U'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('ద', '|'), ('ర', '|'), ('హా', 'U'), ('స', '|'), ('ము', '|'), ('ఖ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('భా', 'U'), ('స', '|'), ('ద', 'U'), ('త్త', '|'), ('కై', 'U'), ('లా', 'U'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('వి', '|'), ('లా', 'U'), ('స', '|'), ('శి', '|'), ('వై', 'U'), ('క్య', '|'), ('స', '|'), ('మా', 'U'), ('స', '|'), ('ని', 'U'), ('ర్జి', '|'), ('తా', 'U'), ('యా', 'U'), ('స', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భ', 'U'), ('క్త', '|'), ('హృ', '|'), ('ద', '|'), ('యాం', 'U'), ('బు', '|'), ('జ', '|'), ('ని', 'U'), ('త్య', '|'), ('ని', '|'), ('వా', 'U'), ('స', '|'), ('ధి', 'U'), ('క్కృ', '|'), ('త', 'U'), ('వ్యా', 'U'), ('స', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>రాగపరోపభోగ! గతరాగ! విధూతభవాదిరోగ! ని
 ర్యాగ! మహానురాగ! బహిరంతర నిష్ఠితయోగ! సత్క్రియో
@@ -972,32 +924,29 @@
 వా గతి నీవె మాకు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('గ', '|'), ('ప', '|'), ('రో', 'U'), ('ప', '|'), ('భో', 'U'), ('గ', '|'), ('గ', '|'), ('త', '|'), ('రా', 'U'), ('గ', '|'), ('వి', '|'), ('ధూ', 'U'), ('త', '|'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('రో', 'U'), ('గ', '|'), ('ని', 'U'), ('ర్యా', 'U'), ('గ', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('బ', '|'), ('హి', '|'), ('రం', 'U'), ('త', '|'), ('ర', '|'), ('ని', 'U'), ('ష్ఠి', '|'), ('త', '|'), ('యో', 'U'), ('గ', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యో', 'U'), ('ద్యో', 'U'), ('గ', '|'), ('య', '|'), ('క', '|'), ('ర్మ', '|'), ('యో', 'U'), ('గ', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గ', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('సు', '|'), ('ఖా', 'U'), ('తి', '|'), ('భో', 'U'), ('గ', '|'), ('దే', 'U'), ('వా', 'U'), ('గ', '|'), ('తి', '|'), ('నీ', 'U'), ('వె', '|'), ('మా', 'U'), ('కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>శీలలతాలవాల! యవశిష్ట భవప్రతికూల! లాలితో
 త్తాల గుణానుకూల! శివధర్మ మతప్రతిపాల! నిత్య స
@@ -1005,32 +954,29 @@
 వా లలిఁ బ్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('శీ', 'U'), ('ల', '|'), ('ల', '|'), ('తా', 'U'), ('ల', '|'), ('వా', 'U'), ('ల', '|'), ('య', '|'), ('వ', '|'), ('శి', 'U'), ('ష్ట', '|'), ('భ', '|'), ('వ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('కూ', 'U'), ('ల', '|'), ('లా', 'U'), ('లి', '|'), ('తో', 'U'), ('త్తా', 'U'), ('ల', '|'), ('గు', '|'), ('ణా', 'U'), ('ను', '|'), ('కూ', 'U'), ('ల', '|'), ('శి', '|'), ('వ', '|'), ('ధ', '|'), ('ర్మ', '|'), ('మ', '|'), ('త', 'U'), ('ప్ర', '|'), ('తి', '|'), ('పా', 'U'), ('ల', '|'), ('ని', 'U'), ('త్య', '|'), ('స', 'U'), ('ల్లీ', 'U'), ('ల', '|'), ('య', '|'), ('శో', 'U'), ('వి', '|'), ('శా', 'U'), ('ల', '|'), ('చ', '|'), ('ర', '|'), ('లిం', 'U'), ('గ', '|'), ('సు', '|'), ('ఖో', 'U'), ('ద', '|'), ('య', '|'), ('కా', 'U'), ('ల', '|'), ('జి', 'U'), ('య్య', '|'), ('దే', 'U'), ('వా', 'U'), ('ల', '|'), ('లి', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>కామితభక్తిభామ! గతకామ! మహాగణ సార్వభౌమ! ని
 స్సీమ యశోభిరామ! సవిశేష విముక్తిలలామ! సద్గుణ
@@ -1038,32 +984,29 @@
 వా మముఁ గావుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('మి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('భా', 'U'), ('మ', '|'), ('గ', '|'), ('త', '|'), ('కా', 'U'), ('మ', '|'), ('మ', '|'), ('హా', 'U'), ('గ', '|'), ('ణ', '|'), ('సా', 'U'), ('ర్వ', '|'), ('భౌ', 'U'), ('మ', '|'), ('ని', 'U'), ('స్సీ', 'U'), ('మ', '|'), ('య', '|'), ('శో', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('వి', '|'), ('ము', 'U'), ('క్తి', '|'), ('ల', '|'), ('లా', 'U'), ('మ', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్తో', 'U'), ('మ', '|'), ('శి', '|'), ('వై', 'U'), ('క్య', '|'), ('దా', 'U'), ('మ', '|'), ('సు', '|'), ('ఖ', '|'), ('దుః', 'U'), ('ఖ', '|'), ('వి', '|'), ('రా', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('మో', 'U'), ('ద', '|'), ('సీ', 'U'), ('మ', '|'), ('దే', 'U'), ('వా', 'U'), ('మ', '|'), ('ము', '|'), ('గా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>సాధిత జన్మబాధ! గతసర్వనిషేధ! హతాపరాధ దు
 ర్బోధ కళావిరోధ! పరిపోషిత శాంభవవేధ! వర్జిత
@@ -1071,32 +1014,29 @@
 వ్యాధికి నీవె మందు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('ధి', '|'), ('త', '|'), ('జ', 'U'), ('న్మ', '|'), ('బా', 'U'), ('ధ', '|'), ('గ', '|'), ('త', '|'), ('స', 'U'), ('ర్వ', '|'), ('ని', '|'), ('షే', 'U'), ('ధ', '|'), ('హ', '|'), ('తా', 'U'), ('ప', '|'), ('రా', 'U'), ('ధ', '|'), ('దు', 'U'), ('ర్బో', 'U'), ('ధ', '|'), ('క', '|'), ('ళా', 'U'), ('వి', '|'), ('రో', 'U'), ('ధ', '|'), ('ప', '|'), ('రి', '|'), ('పో', 'U'), ('షి', '|'), ('త', '|'), ('శాం', 'U'), ('భ', '|'), ('వ', '|'), ('వే', 'U'), ('ధ', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', 'U'), ('క్రో', 'U'), ('ధ', '|'), ('ని', '|'), ('రా', 'U'), ('కృ', '|'), ('తా', 'U'), ('ఖి', '|'), ('ల', '|'), ('వి', '|'), ('రో', 'U'), ('ధ', '|'), ('శి', '|'), ('వై', 'U'), ('క్య', '|'), ('సు', '|'), ('బో', 'U'), ('ధ', '|'), ('యీ', 'U'), ('భ', '|'), ('వ', 'U'), ('వ్యా', 'U'), ('ధి', '|'), ('కి', '|'), ('నీ', 'U'), ('వె', '|'), ('మం', 'U'), ('దు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>శ్రీవిలసత్ప్రభావ! ప్రవిశిష్ట పరాజిత యన్యదైవ! స
 ద్భావ! యుత స్వభావ! శివతత్త్వ విశిష్ట మహానుభావ! యం
@@ -1104,32 +1044,29 @@
 వా వరదానశీల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భా', 'U'), ('వ', 'U'), ('ప్ర', '|'), ('వి', '|'), ('శి', 'U'), ('ష్ట', '|'), ('ప', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('య', 'U'), ('న్య', '|'), ('దై', 'U'), ('వ', '|'), ('స', 'U'), ('ద్భా', 'U'), ('వ', '|'), ('యు', '|'), ('త', 'U'), ('స్వ', '|'), ('భా', 'U'), ('వ', '|'), ('శి', '|'), ('వ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('వి', '|'), ('శి', 'U'), ('ష్ట', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('యం', 'U'), ('హో', 'U'), ('వ', '|'), ('న', '|'), ('దా', 'U'), ('వ', '|'), ('పా', 'U'), ('లి', '|'), ('త', '|'), ('మ', '|'), ('హో', 'U'), ('ద్ధ', '|'), ('త', '|'), ('శై', 'U'), ('వ', '|'), ('వి', '|'), ('భుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వ', '|'), ('దే', 'U'), ('వా', 'U'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('న', '|'), ('శీ', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>ఆద్య! సమర్పితాఖిల పురాతనభక్తగణానువేద్య! సం
 పాద్య! గుణానవద్య! యనుభావశివాంకిత గద్యపద్య! ని
@@ -1137,32 +1074,29 @@
 ద్వైద్య! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('ద్య', '|'), ('స', '|'), ('మ', 'U'), ('ర్పి', '|'), ('తా', 'U'), ('ఖి', '|'), ('ల', '|'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('భ', 'U'), ('క్త', '|'), ('గ', '|'), ('ణా', 'U'), ('ను', '|'), ('వే', 'U'), ('ద్య', '|'), ('సం', 'U'), ('పా', 'U'), ('ద్య', '|'), ('గు', '|'), ('ణా', 'U'), ('న', '|'), ('వ', 'U'), ('ద్య', '|'), ('య', '|'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('శి', '|'), ('వాం', 'U'), ('కి', '|'), ('త', '|'), ('గ', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్య', '|'), ('ని', 'U'), ('ర్భే', 'U'), ('ద్య', '|'), ('గ', '|'), ('ణై', 'U'), ('క', '|'), ('వే', 'U'), ('ద్య', '|'), ('యు', '|'), ('ర', '|'), ('రీ', 'U'), ('కృ', '|'), ('త', '|'), ('వా', 'U'), ('ద్య', '|'), ('భ', '|'), ('వా', 'U'), ('ది', '|'), ('రో', 'U'), ('గ', '|'), ('స', 'U'), ('ద్వై', 'U'), ('ద్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">నాద కళావినోద! యభినందిత వేదహృతాపవాద! సం
 పాదితభక్తిమోద! బుధవందితపాద! చిరప్రమోదనా
@@ -1170,32 +1104,29 @@
 వా దయఁ జూడుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!	</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('ద', '|'), ('క', '|'), ('ళా', 'U'), ('వి', '|'), ('నో', 'U'), ('ద', '|'), ('య', '|'), ('భి', '|'), ('నం', 'U'), ('ది', '|'), ('త', '|'), ('వే', 'U'), ('ద', '|'), ('హృ', '|'), ('తా', 'U'), ('ప', '|'), ('వా', 'U'), ('ద', '|'), ('సం', 'U'), ('పా', 'U'), ('ది', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('మో', 'U'), ('ద', '|'), ('బు', '|'), ('ధ', '|'), ('వం', 'U'), ('ది', '|'), ('త', '|'), ('పా', 'U'), ('ద', '|'), ('చి', '|'), ('ర', 'U'), ('ప్ర', '|'), ('మో', 'U'), ('ద', '|'), ('నా', 'U'), ('స్వా', 'U'), ('ది', '|'), ('త', '|'), ('సు', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('య', '|'), ('వి', '|'), ('షా', 'U'), ('ద', '|'), ('శి', '|'), ('లా', 'U'), ('ద', '|'), ('సు', '|'), ('తా', 'U'), ('వి', '|'), ('భే', 'U'), ('ద', '|'), ('దే', 'U'), ('వా', 'U'), ('ద', '|'), ('య', '|'), ('జూ', 'U'), ('డు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>కాయ గుణావిధేయ! జితకాయ! వినమ్ర జగన్నికాయ! యా
 మ్నాయవచోప్రమేయ! యసమాన సమంచితగేయ! భక్తి ధౌ
@@ -1203,32 +1134,29 @@
 వా యొడయండ వీవ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('కా', 'U'), ('య', '|'), ('గు', '|'), ('ణా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('జి', '|'), ('త', '|'), ('కా', 'U'), ('య', '|'), ('వి', '|'), ('న', '|'), ('మ్ర', '|'), ('జ', '|'), ('గ', 'U'), ('న్ని', '|'), ('కా', 'U'), ('య', '|'), ('యా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('వ', '|'), ('చో', 'U'), ('ప్ర', '|'), ('మే', 'U'), ('య', '|'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('మం', 'U'), ('చి', '|'), ('త', '|'), ('గే', 'U'), ('య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ధౌ', 'U'), ('రే', 'U'), ('య', '|'), ('స', '|'), ('దా', 'U'), ('న', '|'), ('పా', 'U'), ('య', '|'), ('సు', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('జి', '|'), ('తాం', 'U'), ('త', '|'), ('కా', 'U'), ('య', '|'), ('దే', 'U'), ('వా', 'U'), ('యొ', '|'), ('డ', '|'), ('యం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>స్వీకృత భక్తలోక! యవశీకృత కర్కశవావదూక! యూ
 రీకృత సద్వివేక! యురరీకృత జంగమభక్తి శూక! దూ
@@ -1236,32 +1164,29 @@
 ర్వాక! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('స్వీ', 'U'), ('కృ', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('లో', 'U'), ('క', '|'), ('య', '|'), ('వ', '|'), ('శీ', 'U'), ('కృ', '|'), ('త', '|'), ('క', 'U'), ('ర్క', '|'), ('శ', '|'), ('వా', 'U'), ('వ', '|'), ('దూ', 'U'), ('క', '|'), ('యూ', 'U'), ('రీ', 'U'), ('కృ', '|'), ('త', '|'), ('స', 'U'), ('ద్వి', '|'), ('వే', 'U'), ('క', '|'), ('యు', '|'), ('ర', '|'), ('రీ', 'U'), ('కృ', '|'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('శూ', 'U'), ('క', '|'), ('దూ', 'U'), ('రీ', 'U'), ('కృ', '|'), ('త', '|'), ('దు', 'U'), ('ష్ట', '|'), ('పా', 'U'), ('క', '|'), ('య', '|'), ('ధ', '|'), ('రీ', 'U'), ('కృ', '|'), ('త', '|'), ('వే', 'U'), ('ద', '|'), ('వి', '|'), ('రు', 'U'), ('ద్ధ', '|'), ('బౌ', 'U'), ('ద్ధ', '|'), ('చా', 'U'), ('ర్వా', 'U'), ('క', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>నిత్య యుదాత్తసత్య! యతినిశ్చల జంగమ భృత్య! సజ్జన
 స్తుత్య! కృపాకటాక్ష పరిశోభితచైత్య! మహిష్ఠ భక్తి సం
@@ -1269,32 +1194,29 @@
 వ్రాత్య! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('త్య', '|'), ('యు', '|'), ('దా', 'U'), ('త్త', '|'), ('స', 'U'), ('త్య', '|'), ('య', '|'), ('తి', '|'), ('ని', 'U'), ('శ్చ', '|'), ('ల', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('భృ', 'U'), ('త్య', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', 'U'), ('స్తు', 'U'), ('త్య', '|'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ప', '|'), ('రి', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('చై', 'U'), ('త్య', '|'), ('మ', '|'), ('హి', 'U'), ('ష్ఠ', '|'), ('భ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('గ', 'U'), ('త్య', '|'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('స', 'U'), ('త్య', '|'), ('గు', '|'), ('రు', '|'), ('కా', 'U'), ('ర్య', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణ', '|'), ('కృ', 'U'), ('త్య', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', 'U'), ('వ్రా', 'U'), ('త్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>ధన్య మహావదాన్య! గతదైన్య! విధూత జఘన్య! భక్తిచై
 తన్య! గుణైక్యమాన్య! హతదర్పక సైన్య! నిరస్త మాతృకా
@@ -1302,32 +1224,29 @@
 వన్య! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('ధ', 'U'), ('న్య', '|'), ('మ', '|'), ('హా', 'U'), ('వ', '|'), ('దా', 'U'), ('న్య', '|'), ('గ', '|'), ('త', '|'), ('దై', 'U'), ('న్య', '|'), ('వి', '|'), ('ధూ', 'U'), ('త', '|'), ('జ', '|'), ('ఘ', 'U'), ('న్య', '|'), ('భ', 'U'), ('క్తి', '|'), ('చై', 'U'), ('త', 'U'), ('న్య', '|'), ('గు', '|'), ('ణై', 'U'), ('క్య', '|'), ('మా', 'U'), ('న్య', '|'), ('హ', '|'), ('త', '|'), ('ద', 'U'), ('ర్ప', '|'), ('క', '|'), ('సై', 'U'), ('న్య', '|'), ('ని', '|'), ('ర', 'U'), ('స్త', '|'), ('మా', 'U'), ('తృ', '|'), ('కా', 'U'), ('స్త', 'U'), ('న్య', '|'), ('జి', '|'), ('తా', 'U'), ('రి', '|'), ('ఘో', 'U'), ('ర', '|'), ('భ', '|'), ('వ', '|'), ('జ', 'U'), ('న్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('ము', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖా', 'U'), ('త్మ', '|'), ('భా', 'U'), ('వ', 'U'), ('న్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>చర్వితశృంగిగర్వ! గుణసంపద ఖర్వ! యపూర్వగీతగాం
 ధర్వ! దిగంతపూర్ణ సముదాత్త యశః కృతకర్ణపర్వ! యం
@@ -1335,32 +1254,29 @@
 పర్వఘనప్రసాద బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('చ', 'U'), ('ర్వి', '|'), ('త', '|'), ('శృం', 'U'), ('గి', '|'), ('గ', 'U'), ('ర్వ', '|'), ('గు', '|'), ('ణ', '|'), ('సం', 'U'), ('ప', '|'), ('ద', '|'), ('ఖ', 'U'), ('ర్వ', '|'), ('య', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('గీ', 'U'), ('త', '|'), ('గాం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('ది', '|'), ('గం', 'U'), ('త', '|'), ('పూ', 'U'), ('ర్ణ', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('త్త', '|'), ('య', '|'), ('శః', 'U'), ('కృ', '|'), ('త', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('యం', 'U'), ('త', 'U'), ('ర్వి', '|'), ('ని', '|'), ('వి', 'U'), ('ష్ట', '|'), ('శ', 'U'), ('ర్వ', '|'), ('వి', '|'), ('ది', '|'), ('త', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణాం', 'U'), ('చి', '|'), ('త', '|'), ('ద', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('వు', '|'), ('మో', 'U'), ('ప', 'U'), ('ర్వ', '|'), ('ఘ', '|'), ('న', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>ఖ్యాత దయాభిజాత! విపదంబుధిపోత! యజాతతత్త్వ ని
 ర్ణేత! వినేత భక్తిపరిణేత! మనోరథదాత! జంగమ
@@ -1368,32 +1284,29 @@
 వ్రాత శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('ఖ్యా', 'U'), ('త', '|'), ('ద', '|'), ('యా', 'U'), ('భి', '|'), ('జా', 'U'), ('త', '|'), ('వి', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('ధి', '|'), ('పో', 'U'), ('త', '|'), ('య', '|'), ('జా', 'U'), ('త', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ని', 'U'), ('ర్ణే', 'U'), ('త', '|'), ('వి', '|'), ('నే', 'U'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('ప', '|'), ('రి', '|'), ('ణే', 'U'), ('త', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థ', '|'), ('దా', 'U'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('స్తో', 'U'), ('త', '|'), ('ము', '|'), ('ము', 'U'), ('క్షు', '|'), ('గీ', 'U'), ('త', '|'), ('ప', '|'), ('రి', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('నీ', 'U'), ('తి', '|'), ('స', '|'), ('మే', 'U'), ('త', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('వ్రా', 'U'), ('త', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>మారమదాపహార! సుకుమార శరీర! గణప్రసాద వి
 స్తార! వృషావతార సముదార విహార! సమద్దయాపరి
@@ -1401,32 +1314,29 @@
 ర్వార శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('ర', '|'), ('మ', '|'), ('దా', 'U'), ('ప', '|'), ('హా', 'U'), ('ర', '|'), ('సు', '|'), ('కు', '|'), ('మా', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('గ', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('వి', 'U'), ('స్తా', 'U'), ('ర', '|'), ('వృ', '|'), ('షా', 'U'), ('వ', '|'), ('తా', 'U'), ('ర', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('ర', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('స', '|'), ('మ', 'U'), ('ద్ద', '|'), ('యా', 'U'), ('ప', '|'), ('రి', 'U'), ('ష్కా', 'U'), ('ర', '|'), ('శు', '|'), ('భ', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('ర', '|'), ('య', '|'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('మ', '|'), ('హా', 'U'), ('జ', '|'), ('గ', '|'), ('దే', 'U'), ('క', '|'), ('వీ', 'U'), ('ర', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>దేశిక జన్మదేశ! యవిదేశ యనావృతపాశ! సంహృత
 క్లేశ! మహాప్రకాశ! కృత కిల్బిషనాశ! దయానివేశ! నం
@@ -1434,32 +1344,29 @@
 వా శరణీయవయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('శి', '|'), ('క', '|'), ('జ', 'U'), ('న్మ', '|'), ('దే', 'U'), ('శ', '|'), ('య', '|'), ('వి', '|'), ('దే', 'U'), ('శ', '|'), ('య', '|'), ('నా', 'U'), ('వృ', '|'), ('త', '|'), ('పా', 'U'), ('శ', '|'), ('సం', 'U'), ('హృ', '|'), ('త', 'U'), ('క్లే', 'U'), ('శ', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('శ', '|'), ('కృ', '|'), ('త', '|'), ('కి', 'U'), ('ల్బి', '|'), ('ష', '|'), ('నా', 'U'), ('శ', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('వే', 'U'), ('శ', '|'), ('నం', 'U'), ('దీ', 'U'), ('శ', '|'), ('ని', '|'), ('కా', 'U'), ('శ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('స', '|'), ('మీ', 'U'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('రి', '|'), ('గు', '|'), ('ణా', 'U'), ('వ', '|'), ('కా', 'U'), ('శ', '|'), ('దే', 'U'), ('వా', 'U'), ('శ', '|'), ('ర', '|'), ('ణీ', 'U'), ('య', '|'), ('వ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>ఉద్ధతభక్తవృద్ధ! వినుతోత్తమ సిద్ధపరీత జంగమ
 శ్రద్ధ! సదాత్మశుద్ధ! గుణరాజిసమృద్ధ! విముక్తపాశస
@@ -1467,32 +1374,29 @@
 స్వద్ధత చిత్ప్రబుద్ధ! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('ఉ', 'U'), ('ద్ధ', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('వృ', 'U'), ('ద్ధ', '|'), ('వి', '|'), ('ను', '|'), ('తో', 'U'), ('త్త', '|'), ('మ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('ప', '|'), ('రీ', 'U'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('శ్ర', 'U'), ('ద్ధ', '|'), ('స', '|'), ('దా', 'U'), ('త్మ', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('గు', '|'), ('ణ', '|'), ('రా', 'U'), ('జి', '|'), ('స', '|'), ('మృ', 'U'), ('ద్ధ', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('పా', 'U'), ('శ', '|'), ('స', 'U'), ('న్న', 'U'), ('ద్ధ', '|'), ('మ', '|'), ('హా', 'U'), ('ప్ర', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('య', '|'), ('గు', '|'), ('ణ', 'U'), ('త్ర', '|'), ('య', '|'), ('బ', 'U'), ('ద్ధ', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్ధ', '|'), ('త', '|'), ('చి', 'U'), ('త్ప్ర', '|'), ('బు', 'U'), ('ద్ధ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>నందితభక్తబృంద! యవినాశిరదాంశు ముఖారవింద! సా
 నంద వినీతికంద! కరుణామకరంద! రసోపలాలిత
@@ -1500,32 +1404,29 @@
 డ్వందిత! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('నం', 'U'), ('ది', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('బృం', 'U'), ('ద', '|'), ('య', '|'), ('వి', '|'), ('నా', 'U'), ('శి', '|'), ('ర', '|'), ('దాం', 'U'), ('శు', '|'), ('ము', '|'), ('ఖా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('సా', 'U'), ('నం', 'U'), ('ద', '|'), ('వి', '|'), ('నీ', 'U'), ('తి', '|'), ('కం', 'U'), ('ద', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('ర', '|'), ('సో', 'U'), ('ప', '|'), ('లా', 'U'), ('లి', '|'), ('త', 'U'), ('స్కం', 'U'), ('ద', '|'), ('యు', '|'), ('దా', 'U'), ('త్త', '|'), ('భ', 'U'), ('క్తి', '|'), ('త', '|'), ('రు', '|'), ('కం', 'U'), ('ద', '|'), ('య', '|'), ('శో', 'U'), ('జి', '|'), ('త', '|'), ('కుం', 'U'), ('ద', '|'), ('నా', 'U'), ('క', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>లౌల్యపరాయణాత్మ గుణలౌల్య! యమూల్య సదోపయుక్త ని
 ర్మాల్య! వినీతికల్య! యసమానదయా రసకుల్య! నిత్యనై
@@ -1533,32 +1434,29 @@
 వల్య! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('లౌ', 'U'), ('ల్య', '|'), ('ప', '|'), ('రా', 'U'), ('య', '|'), ('ణా', 'U'), ('త్మ', '|'), ('గు', '|'), ('ణ', '|'), ('లౌ', 'U'), ('ల్య', '|'), ('య', '|'), ('మూ', 'U'), ('ల్య', '|'), ('స', '|'), ('దో', 'U'), ('ప', '|'), ('యు', 'U'), ('క్త', '|'), ('ని', '|'), ('ర్మా', 'U'), ('ల్య', '|'), ('వి', '|'), ('నీ', 'U'), ('తి', '|'), ('క', 'U'), ('ల్య', '|'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ద', '|'), ('యా', 'U'), ('ర', '|'), ('స', '|'), ('కు', 'U'), ('ల్య', '|'), ('ని', 'U'), ('త్య', '|'), ('నై', 'U'), ('ర్మ', 'U'), ('ల్య', '|'), ('య', '|'), ('మూ', 'U'), ('ల్య', '|'), ('దు', 'U'), ('ష్ట', '|'), ('జ', '|'), ('న', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('శ', 'U'), ('ల్య', '|'), ('ప', '|'), ('దా', 'U'), ('బ్జ', '|'), ('ల', 'U'), ('బ్ధ', '|'), ('కై', 'U'), ('వ', 'U'), ('ల్య', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>గురుపద సద్మ సద్మ! యవికుంఠిత జంగమశీలఖేల! సు
 స్థిర మృదుపాదమోద! సముదీర్ణ విశేషమహత్వ తత్త్వ! ని
@@ -1566,32 +1464,29 @@
 ద్వరద శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('గు', '|'), ('రు', '|'), ('ప', '|'), ('ద', '|'), ('స', 'U'), ('ద్మ', '|'), ('స', 'U'), ('ద్మ', '|'), ('య', '|'), ('వి', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('శీ', 'U'), ('ల', '|'), ('ఖే', 'U'), ('ల', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('మృ', '|'), ('దు', '|'), ('పా', 'U'), ('ద', '|'), ('మో', 'U'), ('ద', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('మ', '|'), ('హ', 'U'), ('త్వ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ని', 'U'), ('ర్భ', '|'), ('ర', '|'), ('భు', '|'), ('జ', '|'), ('శౌ', 'U'), ('ర్య', '|'), ('ధు', 'U'), ('ర్య', '|'), ('ప', '|'), ('రి', '|'), ('రం', 'U'), ('భి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('క', '|'), ('ళ', 'U'), ('త్ర', '|'), ('గో', 'U'), ('త్ర', '|'), ('మ', 'U'), ('ద్వ', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>భువన హితార్థ తీర్థ! భవభూరుహ శాతకుఠారధార! గౌ
 రవ సముదాత్తవృత్త! యనురాగ రసామృతసారపూర! శాం
@@ -1599,32 +1494,29 @@
 వ వరద కావుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('భు', '|'), ('వ', '|'), ('న', '|'), ('హి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('తీ', 'U'), ('ర్థ', '|'), ('భ', '|'), ('వ', '|'), ('భూ', 'U'), ('రు', '|'), ('హ', '|'), ('శా', 'U'), ('త', '|'), ('కు', '|'), ('ఠా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('స', '|'), ('ము', '|'), ('దా', 'U'), ('త్త', '|'), ('వృ', 'U'), ('త్త', '|'), ('య', '|'), ('ను', '|'), ('రా', 'U'), ('గ', '|'), ('ర', '|'), ('సా', 'U'), ('మృ', '|'), ('త', '|'), ('సా', 'U'), ('ర', '|'), ('పూ', 'U'), ('ర', '|'), ('శాం', 'U'), ('భ', '|'), ('వ', '|'), ('మ', '|'), ('య', '|'), ('వే', 'U'), ('ద', '|'), ('బో', 'U'), ('ధ', '|'), ('శి', '|'), ('వ', '|'), ('భ', 'U'), ('క్త', '|'), ('హృ', '|'), ('ద', 'U'), ('బ్జ', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('భా', 'U'), ('స', '|'), ('దే', 'U'), ('వ', '|'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('కా', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>వినుత నవీనగాన గుణవిశ్రుత భక్తవిధేయకాయ! య
 త్యనుపమగణ్యపుణ్య నయనాంచలదూర భవోపతాప! స
@@ -1632,32 +1524,29 @@
 వ నను భరింపుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ను', '|'), ('త', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('గా', 'U'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('వి', 'U'), ('శ్రు', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('కా', 'U'), ('య', '|'), ('య', 'U'), ('త్య', '|'), ('ను', '|'), ('ప', '|'), ('మ', '|'), ('గ', 'U'), ('ణ్య', '|'), ('పు', 'U'), ('ణ్య', '|'), ('న', '|'), ('య', '|'), ('నాం', 'U'), ('చ', '|'), ('ల', '|'), ('దూ', 'U'), ('ర', '|'), ('భ', '|'), ('వో', 'U'), ('ప', '|'), ('తా', 'U'), ('ప', '|'), ('స', 'U'), ('ద్వి', '|'), ('న', '|'), ('య', '|'), ('వి', '|'), ('కా', 'U'), ('స', '|'), ('భా', 'U'), ('స', '|'), ('స', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్ణ', '|'), ('శి', '|'), ('వై', 'U'), ('క', '|'), ('సు', '|'), ('ఖై', 'U'), ('క', '|'), ('పా', 'U'), ('క', '|'), ('దే', 'U'), ('వ', '|'), ('న', '|'), ('ను', '|'), ('భ', '|'), ('రిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>అంచిత భక్తియుక్త! యసహాయ విశృంఖల వీరపూర! ని
 శ్చంచలశైవభావ! శ్రిత జంగమపాదకిరీట కూట! హృ
@@ -1665,32 +1554,29 @@
 ర్వంచక నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('అం', 'U'), ('చి', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('క్త', '|'), ('య', '|'), ('స', '|'), ('హా', 'U'), ('య', '|'), ('వి', '|'), ('శృం', 'U'), ('ఖ', '|'), ('ల', '|'), ('వీ', 'U'), ('ర', '|'), ('పూ', 'U'), ('ర', '|'), ('ని', 'U'), ('శ్చం', 'U'), ('చ', '|'), ('ల', '|'), ('శై', 'U'), ('వ', '|'), ('భా', 'U'), ('వ', 'U'), ('శ్రి', '|'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('పా', 'U'), ('ద', '|'), ('కి', '|'), ('రీ', 'U'), ('ట', '|'), ('కూ', 'U'), ('ట', '|'), ('హృ', 'U'), ('త్సం', 'U'), ('చి', '|'), ('త', '|'), ('స', 'U'), ('త్త్వ', '|'), ('త', 'U'), ('త్త్వ', '|'), ('దు', '|'), ('రి', '|'), ('త', 'U'), ('వ్ర', '|'), ('జ', '|'), ('శై', 'U'), ('ల', '|'), ('క', '|'), ('దం', 'U'), ('బ', '|'), ('శం', 'U'), ('బ', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('చ', '|'), ('క', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>నిర్గతధర్మ కర్మ! యవినీత పునర్చవ యంత్ర తంత్ర! దు
 ర్మార్గ విహీనయాన! గుణమాన్య మహావృషసామ్య! సౌమష
@@ -1698,32 +1584,29 @@
 వర్గమునేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('ధ', '|'), ('ర్మ', '|'), ('క', '|'), ('ర్మ', '|'), ('య', '|'), ('వి', '|'), ('నీ', 'U'), ('త', '|'), ('పు', '|'), ('న', 'U'), ('ర్చ', '|'), ('వ', '|'), ('యం', 'U'), ('త్ర', '|'), ('తం', 'U'), ('త్ర', '|'), ('దు', '|'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వి', '|'), ('హీ', 'U'), ('న', '|'), ('యా', 'U'), ('న', '|'), ('గు', '|'), ('ణ', '|'), ('మా', 'U'), ('న్య', '|'), ('మ', '|'), ('హా', 'U'), ('వృ', '|'), ('ష', '|'), ('సా', 'U'), ('మ్య', '|'), ('సౌ', 'U'), ('మ', '|'), ('ష', 'U'), ('డ్వ', 'U'), ('ర్గ', '|'), ('వి', '|'), ('ర', 'U'), ('క్త', '|'), ('శ', 'U'), ('క్త', '|'), ('మ', '|'), ('ద', '|'), ('డం', 'U'), ('బ', '|'), ('ర', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('వే', 'U'), ('ష', '|'), ('భూ', 'U'), ('ష', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('నే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>సరసవచస్క! నిర్మలయశస్క! శివైక్యమనస్క! భక్తహృ
 త్సరసిజగేహ! క్లుప్తభవదాహ! దయాపరివాహ! చిత్సుఖో
@@ -1731,32 +1614,29 @@
 వరద! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('స', '|'), ('వ', '|'), ('చ', 'U'), ('స్క', '|'), ('ని', '|'), ('ర్మ', '|'), ('ల', '|'), ('య', '|'), ('శ', 'U'), ('స్క', '|'), ('శి', '|'), ('వై', 'U'), ('క్య', '|'), ('మ', '|'), ('న', 'U'), ('స్క', '|'), ('భ', 'U'), ('క్త', '|'), ('హృ', 'U'), ('త్స', '|'), ('ర', '|'), ('సి', '|'), ('జ', '|'), ('గే', 'U'), ('హ', 'U'), ('క్లు', 'U'), ('ప్త', '|'), ('భ', '|'), ('వ', '|'), ('దా', 'U'), ('హ', '|'), ('ద', '|'), ('యా', 'U'), ('ప', '|'), ('రి', '|'), ('వా', 'U'), ('హ', '|'), ('చి', 'U'), ('త్సు', '|'), ('ఖో', 'U'), ('త్త', '|'), ('ర', '|'), ('ని', '|'), ('జ', '|'), ('శి', 'U'), ('ల్ప', '|'), ('భ', 'U'), ('క్త', '|'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('ల్ప', '|'), ('మ', '|'), ('హా', 'U'), ('వృ', '|'), ('ష', '|'), ('క', 'U'), ('ల్ప', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>హర సమసౌఖ్య! యాదివృషభాఖ్య! పురాతనముఖ్య తత్త్వవి
 త్పరిషదుపాస్య! వీతగుణదాస్య! త్రిలోకసమస్య! తార్కికో
@@ -1764,32 +1644,29 @@
 వరద! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('ర', '|'), ('స', '|'), ('మ', '|'), ('సౌ', 'U'), ('ఖ్య', '|'), ('యా', 'U'), ('ది', '|'), ('వృ', '|'), ('ష', '|'), ('భా', 'U'), ('ఖ్య', '|'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('న', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('త', 'U'), ('త్త్వ', '|'), ('వి', 'U'), ('త్ప', '|'), ('రి', '|'), ('ష', '|'), ('దు', '|'), ('పా', 'U'), ('స్య', '|'), ('వీ', 'U'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('దా', 'U'), ('స్య', 'U'), ('త్రి', '|'), ('లో', 'U'), ('క', '|'), ('స', '|'), ('మ', 'U'), ('స్య', '|'), ('తా', 'U'), ('ర్కి', '|'), ('కో', 'U'), ('త్క', '|'), ('ర', '|'), ('జ', '|'), ('య', '|'), ('శౌం', 'U'), ('డ', '|'), ('దీ', 'U'), ('ర్ఘ', '|'), ('భు', '|'), ('జ', '|'), ('దం', 'U'), ('డ', '|'), ('మ', '|'), ('హా', 'U'), ('గు', '|'), ('ణ', '|'), ('షం', 'U'), ('డ', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>వరగుణదీప్ర! భక్తజనవప్ర! తృణీకృతవిప్ర! తాత్త్వికాం
 కుర పదపద్మ భక్తిరసగుంభ! నిరాకృతదంభ! సద్గుణ
@@ -1797,32 +1674,29 @@
 వరద! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ర', '|'), ('గు', '|'), ('ణ', '|'), ('దీ', 'U'), ('ప్ర', '|'), ('భ', 'U'), ('క్త', '|'), ('జ', '|'), ('న', '|'), ('వ', 'U'), ('ప్ర', '|'), ('తృ', '|'), ('ణీ', 'U'), ('కృ', '|'), ('త', '|'), ('వి', 'U'), ('ప్ర', '|'), ('తా', 'U'), ('త్త్వి', '|'), ('కాం', 'U'), ('కు', '|'), ('ర', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('ర', '|'), ('స', '|'), ('గుం', 'U'), ('భ', '|'), ('ని', '|'), ('రా', 'U'), ('కృ', '|'), ('త', '|'), ('దం', 'U'), ('భ', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('త', '|'), ('వి', '|'), ('శి', 'U'), ('ష్ట', '|'), ('శాం', 'U'), ('త', '|'), ('గు', '|'), ('ణ', '|'), ('పు', 'U'), ('ష్ట', '|'), ('ని', '|'), ('ర', 'U'), ('స్త', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ట', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>లింగనిరూఢ! సంచితవిలీఢ! పరాక్రమగూఢ! మానసా
 సంగి వృషాంక! నిర్గళితశంక! నిరస్తకళంక! సంతతా
@@ -1830,32 +1704,29 @@
 వంగడమేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('లిం', 'U'), ('గ', '|'), ('ని', '|'), ('రూ', 'U'), ('ఢ', '|'), ('సం', 'U'), ('చి', '|'), ('త', '|'), ('వి', '|'), ('లీ', 'U'), ('ఢ', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('గూ', 'U'), ('ఢ', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('సం', 'U'), ('గి', '|'), ('వృ', '|'), ('షాం', 'U'), ('క', '|'), ('ని', 'U'), ('ర్గ', '|'), ('ళి', '|'), ('త', '|'), ('శం', 'U'), ('క', '|'), ('ని', '|'), ('ర', 'U'), ('స్త', '|'), ('క', '|'), ('ళం', 'U'), ('క', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('భం', 'U'), ('గు', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్య', '|'), ('శీ', 'U'), ('ల', '|'), ('ము', '|'), ('ఖ', '|'), ('మ', 'U'), ('ణ్య', 'U'), ('త్రి', '|'), ('లో', 'U'), ('క', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్య', '|'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>ఉరుతరభాగ్య! మన్మహితయోగ్య! జగత్త్రయమృగ్య! పాపసం
 హరణసమర్థ! నమ్రచరితార్థ! లసద్గుణసార్థ! భావ భా
@@ -1863,32 +1734,29 @@
 వరద! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('భా', 'U'), ('గ్య', '|'), ('మ', 'U'), ('న్మ', '|'), ('హి', '|'), ('త', '|'), ('యో', 'U'), ('గ్య', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్ర', '|'), ('య', '|'), ('మృ', 'U'), ('గ్య', '|'), ('పా', 'U'), ('ప', '|'), ('సం', 'U'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('స', '|'), ('మ', 'U'), ('ర్థ', '|'), ('న', '|'), ('మ్ర', '|'), ('చ', '|'), ('రి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ల', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('సా', 'U'), ('ర్థ', '|'), ('భా', 'U'), ('వ', '|'), ('భా', 'U'), ('స్వ', '|'), ('ర', '|'), ('న', '|'), ('య', '|'), ('సాం', 'U'), ('ద్ర', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('జి', '|'), ('త', '|'), ('చం', 'U'), ('ద్ర', '|'), ('వి', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('తం', 'U'), ('ద్ర', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>అసమవదాన్య మాన్య! ప్రణుతార్యయవార్య! రసజ్ఞతజ్ఞ! దు
 ర్వ్యసన విదూర! శూరగణవంద్య! యనింద్య! యమాఢ్య యాఢ్య! భ
@@ -1896,32 +1764,29 @@
 వసి గని ప్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('స', '|'), ('మ', '|'), ('వ', '|'), ('దా', 'U'), ('న్య', '|'), ('మా', 'U'), ('న్య', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('తా', 'U'), ('ర్య', '|'), ('య', '|'), ('వా', 'U'), ('ర్య', '|'), ('ర', '|'), ('స', 'U'), ('జ్ఞ', '|'), ('త', 'U'), ('జ్ఞ', '|'), ('దు', 'U'), ('ర్వ్య', '|'), ('స', '|'), ('న', '|'), ('వి', '|'), ('దూ', 'U'), ('ర', '|'), ('శూ', 'U'), ('ర', '|'), ('గ', '|'), ('ణ', '|'), ('వం', 'U'), ('ద్య', '|'), ('య', '|'), ('నిం', 'U'), ('ద్య', '|'), ('య', '|'), ('మా', 'U'), ('ఢ్య', '|'), ('యా', 'U'), ('ఢ్య', '|'), ('భ', 'U'), ('క్తి', '|'), ('సు', '|'), ('ఖ', '|'), ('స', '|'), ('మృ', 'U'), ('ద్ధ', '|'), ('వృ', 'U'), ('ద్ధ', '|'), ('చి', '|'), ('ర', '|'), ('దీ', 'U'), ('ప్తి', '|'), ('ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('పా', 'U'), ('త్ర', '|'), ('నా', 'U'), ('వ', '|'), ('సి', '|'), ('గ', '|'), ('ని', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>అసమశిలీముఖ స్ఫురదహంకృతికర్తన! కర్మకర్మఠా
 భ్యసన ధురీణ విభ్రమ! గణాధిప పాదసరోజ సంతత
@@ -1929,32 +1794,29 @@
 వ్యసన! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('స', '|'), ('మ', '|'), ('శి', '|'), ('లీ', 'U'), ('ము', '|'), ('ఖ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ద', '|'), ('హం', 'U'), ('కృ', '|'), ('తి', '|'), ('క', 'U'), ('ర్త', '|'), ('న', '|'), ('క', '|'), ('ర్మ', '|'), ('క', '|'), ('ర్మ', '|'), ('ఠా', 'U'), ('భ్య', '|'), ('స', '|'), ('న', '|'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('వి', 'U'), ('భ్ర', '|'), ('మ', '|'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('ప', '|'), ('పా', 'U'), ('ద', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('సం', 'U'), ('త', '|'), ('త', 'U'), ('ప్ర', '|'), ('సృ', '|'), ('మ', '|'), ('ర', '|'), ('సౌ', 'U'), ('ర', '|'), ('భో', 'U'), ('రు', '|'), ('మ', '|'), ('క', '|'), ('రం', 'U'), ('ద', '|'), ('క', '|'), ('సి', 'U'), ('క్త', '|'), ('వ', '|'), ('న', 'U'), ('క్రి', '|'), ('యా', 'U'), ('క', '|'), ('ళా', 'U'), ('వ్య', '|'), ('స', '|'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>సురవరమల్ల! మల్లవిత సూత్రసుధాంబుధిఖేల! ఖేలసం
 గర కలకంఠ! కంఠమణినాయకభీమభుజంగ! జంగమ
@@ -1962,32 +1824,29 @@
 వర! కరుణాబ్ధి! ప్రోవు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('మ', 'U'), ('ల్ల', '|'), ('మ', 'U'), ('ల్ల', '|'), ('వి', '|'), ('త', '|'), ('సూ', 'U'), ('త్ర', '|'), ('సు', '|'), ('ధాం', 'U'), ('బు', '|'), ('ధి', '|'), ('ఖే', 'U'), ('ల', '|'), ('ఖే', 'U'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('క', '|'), ('ల', '|'), ('కం', 'U'), ('ఠ', '|'), ('కం', 'U'), ('ఠ', '|'), ('మ', '|'), ('ణి', '|'), ('నా', 'U'), ('య', '|'), ('క', '|'), ('భీ', 'U'), ('మ', '|'), ('భు', '|'), ('జం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('స్థి', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('థ', '|'), ('క', '|'), ('ని', '|'), ('ధీ', 'U'), ('కృ', '|'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', '|'), ('రూ', 'U'), ('ప', '|'), ('స', 'U'), ('మ్మ', '|'), ('తా', 'U'), ('వ', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('బ్ధి', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>సురవర పూజ్య! పూజ్యగుణశోభిత! శోభితరూప! రూప వి
 స్ఫురతరశీల! శీలగుణపుంగవ! పుంగవ సత్త్వ! సత్త్వసం
@@ -1995,32 +1854,29 @@
 శ్వర సమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('వ', '|'), ('ర', '|'), ('పూ', 'U'), ('జ్య', '|'), ('పూ', 'U'), ('జ్య', '|'), ('గు', '|'), ('ణ', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('రూ', 'U'), ('ప', '|'), ('రూ', 'U'), ('ప', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('శీ', 'U'), ('ల', '|'), ('శీ', 'U'), ('ల', '|'), ('గు', '|'), ('ణ', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('పుం', 'U'), ('గ', '|'), ('వ', '|'), ('స', 'U'), ('త్త్వ', '|'), ('స', 'U'), ('త్త్వ', '|'), ('సం', 'U'), ('వ', '|'), ('ర', '|'), ('ప', '|'), ('ర', '|'), ('వా', 'U'), ('ద', '|'), ('వా', 'U'), ('ద', '|'), ('భ', '|'), ('య', '|'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('పా', 'U'), ('ప', '|'), ('వి', '|'), ('చా', 'U'), ('ర', '|'), ('చా', 'U'), ('ర', '|'), ('ఈ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('స', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>ఇహపరసిద్ధ! సిద్ధ వృషభేశ్వర! ఈశ్వర భక్త! భక్త హృ
 ద్గహన విలోక! లోకహిత కారణ! కారణజన్మ! జన్మదో
@@ -2028,32 +1884,29 @@
 ర్వహణ! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('హ', '|'), ('ప', '|'), ('ర', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('వృ', '|'), ('ష', '|'), ('భే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('ఈ', 'U'), ('శ్వ', '|'), ('ర', '|'), ('భ', 'U'), ('క్త', '|'), ('భ', 'U'), ('క్త', '|'), ('హృ', 'U'), ('ద్గ', '|'), ('హ', '|'), ('న', '|'), ('వి', '|'), ('లో', 'U'), ('క', '|'), ('లో', 'U'), ('క', '|'), ('హి', '|'), ('త', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('కా', 'U'), ('ర', '|'), ('ణ', '|'), ('జ', 'U'), ('న్మ', '|'), ('జ', 'U'), ('న్మ', '|'), ('దో', 'U'), ('ష', '|'), ('హ', '|'), ('ర', '|'), ('ణ', '|'), ('ద', 'U'), ('క్ష', '|'), ('ద', 'U'), ('క్ష', '|'), ('రి', '|'), ('పు', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('రూ', 'U'), ('ప', '|'), ('రూ', 'U'), ('ప', '|'), ('ని', 'U'), ('ర్వ', '|'), ('హ', '|'), ('ణ', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>రుద్ర గణాదిరుద్ర! వినిరూపిత లింగసుఖాదిసంద్ర య
 చ్ఛిద్ర! దయాసముద్ర! సవిశేష పరాక్రమ వీరభద్ర! య
@@ -2061,32 +1914,29 @@
 వ ద్రుమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('రు', '|'), ('ద్ర', '|'), ('గ', '|'), ('ణా', 'U'), ('ది', '|'), ('రు', '|'), ('ద్ర', '|'), ('వి', '|'), ('ని', '|'), ('రూ', 'U'), ('పి', '|'), ('త', '|'), ('లిం', 'U'), ('గ', '|'), ('సు', '|'), ('ఖా', 'U'), ('ది', '|'), ('సం', 'U'), ('ద్ర', '|'), ('య', 'U'), ('చ్ఛి', '|'), ('ద్ర', '|'), ('ద', '|'), ('యా', 'U'), ('స', '|'), ('ము', '|'), ('ద్ర', '|'), ('స', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('ప', '|'), ('రా', 'U'), ('క్ర', '|'), ('మ', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్ర', '|'), ('య', 'U'), ('క్షు', '|'), ('ద్ర', '|'), ('జ', '|'), ('నా', 'U'), ('వ', '|'), ('ళీ', 'U'), ('భ', '|'), ('వ', '|'), ('ని', '|'), ('షూ', 'U'), ('ద', '|'), ('న', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('స', '|'), ('మ', 'U'), ('స్త', '|'), ('భ', 'U'), ('క్త', '|'), ('దే', 'U'), ('వ', '|'), ('ద్రు', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>విరచిత శుద్ధసాళగ నవీన మృదుస్వర మంద్ర మధ్య తా
 ర రుచిర దేశిమార్గ మధురస్వర గీతసుధాతరంగిణీ
@@ -2094,32 +1944,29 @@
 శ్వర శరణయ్య నీకు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('ర', '|'), ('చి', '|'), ('త', '|'), ('శు', 'U'), ('ద్ధ', '|'), ('సా', 'U'), ('ళ', '|'), ('గ', '|'), ('న', '|'), ('వీ', 'U'), ('న', '|'), ('మృ', '|'), ('దు', 'U'), ('స్వ', '|'), ('ర', '|'), ('మం', 'U'), ('ద్ర', '|'), ('మ', 'U'), ('ధ్య', '|'), ('తా', 'U'), ('ర', '|'), ('రు', '|'), ('చి', '|'), ('ర', '|'), ('దే', 'U'), ('శి', '|'), ('మా', 'U'), ('ర్గ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('స్వ', '|'), ('ర', '|'), ('గీ', 'U'), ('త', '|'), ('సు', '|'), ('ధా', 'U'), ('త', '|'), ('రం', 'U'), ('గి', '|'), ('ణీ', 'U'), ('త', '|'), ('ర', '|'), ('ళ', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('జా', 'U'), ('ల', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చి', '|'), ('త', '|'), ('కే', 'U'), ('ళి', '|'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('సం', 'U'), ('గ', '|'), ('మే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('శ', '|'), ('ర', '|'), ('ణ', 'U'), ('య్య', '|'), ('నీ', 'U'), ('కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అసదృశ విస్ఫురద్గుణ దృగంచల కల్పిత సృష్టిపాలన
 గ్రసనకళాకలాప ఘనకౌశల ఖేలన లింగమూర్తి మా
@@ -2127,32 +1974,29 @@
 శ్వసన శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('స', '|'), ('దృ', '|'), ('శ', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('ర', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('దృ', '|'), ('గం', 'U'), ('చ', '|'), ('ల', '|'), ('క', 'U'), ('ల్పి', '|'), ('త', '|'), ('సృ', 'U'), ('ష్టి', '|'), ('పా', 'U'), ('ల', '|'), ('న', 'U'), ('గ్ర', '|'), ('స', '|'), ('న', '|'), ('క', '|'), ('ళా', 'U'), ('క', '|'), ('లా', 'U'), ('ప', '|'), ('ఘ', '|'), ('న', '|'), ('కౌ', 'U'), ('శ', '|'), ('ల', '|'), ('ఖే', 'U'), ('ల', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('మా', 'U'), ('న', '|'), ('స', '|'), ('క', '|'), ('ల', '|'), ('నా', 'U'), ('వ', '|'), ('శీ', 'U'), ('క', '|'), ('ర', '|'), ('ణ', '|'), ('నై', 'U'), ('పు', '|'), ('ణ', '|'), ('త', 'U'), ('త్ప', '|'), ('ర', '|'), ('శీ', 'U'), ('ల', '|'), ('జం', 'U'), ('గ', '|'), ('మ', 'U'), ('శ్వ', '|'), ('స', '|'), ('న', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>ప్రమథగణాధినాథ సముపాసన భాసుర పార్వతీమనో
 రమ రమణీయ హృత్కమలరాజిత నవ్యపతంగ సౌరభ
@@ -2160,32 +2004,29 @@
 వమహిత! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('థ', '|'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('నా', 'U'), ('థ', '|'), ('స', '|'), ('ము', '|'), ('పా', 'U'), ('స', '|'), ('న', '|'), ('భా', 'U'), ('సు', '|'), ('ర', '|'), ('పా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('మ', '|'), ('ర', '|'), ('మ', '|'), ('ణీ', 'U'), ('య', '|'), ('హృ', 'U'), ('త్క', '|'), ('మ', '|'), ('ల', '|'), ('రా', 'U'), ('జి', '|'), ('త', '|'), ('న', 'U'), ('వ్య', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('సౌ', 'U'), ('ర', '|'), ('భ', 'U'), ('భ్ర', '|'), ('మ', '|'), ('ర', '|'), ('వి', '|'), ('లో', 'U'), ('ల', '|'), ('తా', 'U'), ('మ', '|'), ('ధు', '|'), ('క', '|'), ('రా', 'U'), ('యి', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('మ', '|'), ('హి', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>కందళితాత్మయంత్రిక వికర్తనశీల మరీచిమన్మనో
 మందవిహార విస్ఫురిత మధ్యమయాన చిదంబరేందు ని
@@ -2193,32 +2034,29 @@
 డ్వందిత నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('ద', '|'), ('ళి', '|'), ('తా', 'U'), ('త్మ', '|'), ('యం', 'U'), ('త్రి', '|'), ('క', '|'), ('వి', '|'), ('క', 'U'), ('ర్త', '|'), ('న', '|'), ('శీ', 'U'), ('ల', '|'), ('మ', '|'), ('రీ', 'U'), ('చి', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('మం', 'U'), ('ద', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('వి', 'U'), ('స్ఫు', '|'), ('రి', '|'), ('త', '|'), ('మ', 'U'), ('ధ్య', '|'), ('మ', '|'), ('యా', 'U'), ('న', '|'), ('చి', '|'), ('దం', 'U'), ('బ', '|'), ('రేం', 'U'), ('దు', '|'), ('ని', 'U'), ('ష్యం', 'U'), ('ద', '|'), ('సు', '|'), ('ధా', 'U'), ('ర', '|'), ('సా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('సం', 'U'), ('త', '|'), ('త', '|'), ('ది', 'U'), ('వ్య', '|'), ('శ', '|'), ('రీ', 'U'), ('ర', '|'), ('యో', 'U'), ('గి', '|'), ('రా', 'U'), ('డ్వం', 'U'), ('ది', '|'), ('త', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>ఖ్యాతయశఃప్రపూరిత జగత్త్రియాయ నమోనమో, మహా
 పాతక సూతకఘ్న పదపద్మ యుగాయ నమోనమో, సము
@@ -2226,32 +2064,29 @@
 వ్రాత శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('ఖ్యా', 'U'), ('త', '|'), ('య', '|'), ('శః', 'U'), ('ప్ర', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('జ', '|'), ('గ', 'U'), ('త్త్రి', '|'), ('యా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('మ', '|'), ('హా', 'U'), ('పా', 'U'), ('త', '|'), ('క', '|'), ('సూ', 'U'), ('త', '|'), ('క', 'U'), ('ఘ్న', '|'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('యు', '|'), ('గా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('స', '|'), ('ము', 'U'), ('ద్ద్యో', 'U'), ('త', '|'), ('వృ', '|'), ('షా', 'U'), ('య', '|'), ('తే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ను', 'U'), ('త్సు', '|'), ('క', '|'), ('తన్', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', '|'), ('సం', 'U'), ('య', '|'), ('మి', 'U'), ('వ్రా', 'U'), ('త', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>అస్తగణ ప్రవిష్ట సకలార్తి హరాయ నమోనమో, సుఖా
 వాప్తి కరస్మితాంచిత కటాక్ష దయాయ నమోనమో, సము
@@ -2259,32 +2094,29 @@
 ర్వ్యాప్త జగత్ప్రపంచ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('స్త', '|'), ('గ', '|'), ('ణ', 'U'), ('ప్ర', '|'), ('వి', 'U'), ('ష్ట', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('ర్తి', '|'), ('హ', '|'), ('రా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('సు', '|'), ('ఖా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('క', '|'), ('ర', 'U'), ('స్మి', '|'), ('తాం', 'U'), ('చి', '|'), ('త', '|'), ('క', '|'), ('టా', 'U'), ('క్ష', '|'), ('ద', '|'), ('యా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('స', '|'), ('ము', 'U'), ('ద్దీ', 'U'), ('ప్త', '|'), ('గు', '|'), ('ణా', 'U'), ('య', '|'), ('తే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('దీ', 'U'), ('న', '|'), ('గ', '|'), ('తిన్', 'U'), ('బ్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('ని', 'U'), ('ర్వ్యా', 'U'), ('ప్త', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('పం', 'U'), ('చ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>కల్పితలింగ జంగమసుఖ స్ఫురణాయ నమోనమో, యసం
 కల్ప వికల్ప మార్గకథిత ప్రథితాయ నమోనమో, గుణా
@@ -2292,32 +2124,29 @@
 స్వల్పతర ప్రభావ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ల్పి', '|'), ('త', '|'), ('లిం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('సు', '|'), ('ఖ', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('ణా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('య', '|'), ('సం', 'U'), ('క', 'U'), ('ల్ప', '|'), ('వి', '|'), ('క', 'U'), ('ల్ప', '|'), ('మా', 'U'), ('ర్గ', '|'), ('క', '|'), ('థి', '|'), ('త', 'U'), ('ప్ర', '|'), ('థి', '|'), ('తా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('న', '|'), ('మో', 'U'), ('గు', '|'), ('ణా', 'U'), ('క', 'U'), ('ల్ప', '|'), ('వ', '|'), ('రా', 'U'), ('య', '|'), ('తే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('గౌ', 'U'), ('ర', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', 'U'), ('స్వ', 'U'), ('ల్ప', '|'), ('త', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>తర్జిత దుష్కృతాయ! భవతాపనికృంతన కల్మషాయ! భ
 క్త్యూర్జిత మానసాయ! సుగుణోత్తమరత్న కరండకాయ! తే
@@ -2325,32 +2154,29 @@
 వర్జిత భక్తలోక! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('త', 'U'), ('ర్జి', '|'), ('త', '|'), ('దు', 'U'), ('ష్కృ', '|'), ('తా', 'U'), ('య', '|'), ('భ', '|'), ('వ', '|'), ('తా', 'U'), ('ప', '|'), ('ని', '|'), ('కృం', 'U'), ('త', '|'), ('న', '|'), ('క', 'U'), ('ల్మ', '|'), ('షా', 'U'), ('య', '|'), ('భ', 'U'), ('క్త్యూ', 'U'), ('ర్జి', '|'), ('త', '|'), ('మా', 'U'), ('న', '|'), ('సా', 'U'), ('య', '|'), ('సు', '|'), ('గు', '|'), ('ణో', 'U'), ('త్త', '|'), ('మ', '|'), ('ర', 'U'), ('త్న', '|'), ('క', '|'), ('రం', 'U'), ('డ', '|'), ('కా', 'U'), ('య', '|'), ('తే', 'U'), ('యా', 'U'), ('ర్జి', '|'), ('త', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యా', 'U'), ('య', '|'), ('స', '|'), ('ద', '|'), ('యా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('య', '|'), ('ని', '|'), ('స', 'U'), ('న్ను', '|'), ('తిం', 'U'), ('తు', '|'), ('నా', 'U'), ('వ', 'U'), ('ర్జి', '|'), ('త', '|'), ('భ', 'U'), ('క్త', '|'), ('లో', 'U'), ('క', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>చూర్ణిత మన్మథాయ! పరిశోభితభస్మవిలేపనాయ! సం
 పూర్ణమనోరథాయ! గతపూర్వ భవాశ్రిత వర్తనాయ! తే
@@ -2358,32 +2184,29 @@
 న్వర్ణన సేయువాడ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('చూ', 'U'), ('ర్ణి', '|'), ('త', '|'), ('మ', 'U'), ('న్మ', '|'), ('థా', 'U'), ('య', '|'), ('ప', '|'), ('రి', '|'), ('శో', 'U'), ('భి', '|'), ('త', '|'), ('భ', 'U'), ('స్మ', '|'), ('వి', '|'), ('లే', 'U'), ('ప', '|'), ('నా', 'U'), ('య', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('థా', 'U'), ('య', '|'), ('గ', '|'), ('త', '|'), ('పూ', 'U'), ('ర్వ', '|'), ('భ', '|'), ('వా', 'U'), ('శ్రి', '|'), ('త', '|'), ('వ', 'U'), ('ర్త', '|'), ('నా', 'U'), ('య', '|'), ('తే', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('ని', '|'), ('రా', 'U'), ('స', '|'), ('కా', 'U'), ('య', '|'), ('స', '|'), ('శి', '|'), ('వా', 'U'), ('య', '|'), ('న', '|'), ('మో', 'U'), ('య', '|'), ('ని', '|'), ('సం', 'U'), ('త', '|'), ('తం', 'U'), ('బు', '|'), ('ని', 'U'), ('న్వ', 'U'), ('ర్ణ', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('వా', 'U'), ('డ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>హృన్నళినే స్మరామి భవదీయ పదద్వితయం భవాటన
 స్విన్న తను శ్రమాపహ మశేష జగత్ప్రణుతం మదీశ ని
@@ -2391,32 +2214,29 @@
 ద్వన్నుత నామధేయ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('హృ', 'U'), ('న్న', '|'), ('ళి', '|'), ('నే', 'U'), ('స్మ', '|'), ('రా', 'U'), ('మి', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('ప', '|'), ('ద', 'U'), ('ద్వి', '|'), ('త', '|'), ('యం', 'U'), ('భ', '|'), ('వా', 'U'), ('ట', '|'), ('న', 'U'), ('స్వి', 'U'), ('న్న', '|'), ('త', '|'), ('ను', 'U'), ('శ్ర', '|'), ('మా', 'U'), ('ప', '|'), ('హ', '|'), ('మ', '|'), ('శే', 'U'), ('ష', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('ణు', '|'), ('తం', 'U'), ('మ', '|'), ('దీ', 'U'), ('శ', '|'), ('ని', 'U'), ('ష్ప', 'U'), ('న్న', '|'), ('ద', '|'), ('యా', 'U'), ('ని', '|'), ('ధే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('సం', 'U'), ('స్కృ', '|'), ('త', '|'), ('భా', 'U'), ('ష', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('న్ను', '|'), ('త', '|'), ('నా', 'U'), ('మ', '|'), ('ధే', 'U'), ('య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>పరమనె యన్నె యాండవనె పన్నగతానె యనాథ నాధనే
 పెరియనెపే నివుందనవె పేరు డయాననె పేరు జెప్పనే
@@ -2424,32 +2244,29 @@
 వరకరుణా విధేయ! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ర', '|'), ('మ', '|'), ('నె', '|'), ('య', 'U'), ('న్నె', '|'), ('యాం', 'U'), ('డ', '|'), ('వ', '|'), ('నె', '|'), ('ప', 'U'), ('న్న', '|'), ('గ', '|'), ('తా', 'U'), ('నె', '|'), ('య', '|'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('ధ', '|'), ('నే', 'U'), ('పె', '|'), ('రి', '|'), ('య', '|'), ('నె', '|'), ('పే', 'U'), ('ని', '|'), ('వుం', 'U'), ('ద', '|'), ('న', '|'), ('వె', '|'), ('పే', 'U'), ('రు', '|'), ('డ', '|'), ('యా', 'U'), ('న', '|'), ('నె', '|'), ('పే', 'U'), ('రు', '|'), ('జె', 'U'), ('ప్ప', '|'), ('నే', 'U'), ('త', '|'), ('రి', '|'), ('ము', '|'), ('రి', '|'), ('యా', 'U'), ('య', '|'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('ద్రా', 'U'), ('వి', '|'), ('డ', '|'), ('భా', 'U'), ('ష', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>"హసుళెయరన్న రక్షిసు వుహారయ లెన్న వనీవనెందు మ
 న్నిసువుడు నిమ్మడింగెరగ నిమ్మ ప్రసాదిత నిమ్మదాత్మ వే
@@ -2457,32 +2274,29 @@
 శ్వసన పురాతనాత్మ! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('సు', '|'), ('ళె', '|'), ('య', '|'), ('ర', 'U'), ('న్న', '|'), ('ర', 'U'), ('క్షి', '|'), ('సు', '|'), ('వు', '|'), ('హా', 'U'), ('ర', '|'), ('య', '|'), ('లె', 'U'), ('న్న', '|'), ('వ', '|'), ('నీ', 'U'), ('వ', '|'), ('నెం', 'U'), ('దు', '|'), ('మ', 'U'), ('న్ని', '|'), ('సు', '|'), ('వు', '|'), ('డు', '|'), ('ని', 'U'), ('మ్మ', '|'), ('డిం', 'U'), ('గె', '|'), ('ర', '|'), ('గ', '|'), ('ని', 'U'), ('మ్మ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ది', '|'), ('త', '|'), ('ని', 'U'), ('మ్మ', '|'), ('దా', 'U'), ('త్మ', '|'), ('వే', 'U'), ('క', '|'), ('సి', '|'), ('గ', '|'), ('తి', '|'), ('యం', 'U'), ('చు', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('ను', '|'), ('గ', 'U'), ('న్న', '|'), ('డ', '|'), ('భా', 'U'), ('ష', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ష', 'U'), ('డ్గు', '|'), ('ణ', 'U'), ('శ్వ', '|'), ('స', '|'), ('న', '|'), ('పు', '|'), ('రా', 'U'), ('త', '|'), ('నా', 'U'), ('త్మ', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>"దేవ పరీ తుహేచి గురుదేవ మణూను తరీ తుమ్హీచ గో
 సావి తరీ తుహేచి తుమచాచ ప్రసాదయమీ కృపా కరా
@@ -2490,32 +2304,29 @@
 వా వినుతార్య లీల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('దే', 'U'), ('వ', '|'), ('ప', '|'), ('రీ', 'U'), ('తు', '|'), ('హే', 'U'), ('చి', '|'), ('గు', '|'), ('రు', '|'), ('దే', 'U'), ('వ', '|'), ('మ', '|'), ('ణూ', 'U'), ('ను', '|'), ('త', '|'), ('రీ', 'U'), ('తు', 'U'), ('మ్హీ', 'U'), ('చ', '|'), ('గో', 'U'), ('సా', 'U'), ('వి', '|'), ('త', '|'), ('రీ', 'U'), ('తు', '|'), ('హే', 'U'), ('చి', '|'), ('తు', '|'), ('మ', '|'), ('చా', 'U'), ('చ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('య', '|'), ('మీ', 'U'), ('కృ', '|'), ('పా', 'U'), ('క', '|'), ('రా', 'U'), ('హే', 'U'), ('వ', '|'), ('ర', '|'), ('దా', 'U'), ('య', '|'), ('టం', 'U'), ('చు', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('చె', '|'), ('ద', '|'), ('ని', 'U'), ('న్ను', '|'), ('ను', '|'), ('నా', 'U'), ('రె', '|'), ('భా', 'U'), ('ష', '|'), ('దే', 'U'), ('వా', 'U'), ('వి', '|'), ('ను', '|'), ('తా', 'U'), ('ర్య', '|'), ('లీ', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>"అనయముఁ జేతులందు భవదంఘ్రి సరోజయుగం నమామి నె
 మ్మనమున సంస్మరామి యను మాటల నిన్‌ వరివస్క రోమ్య హ"
@@ -2523,32 +2334,29 @@
 ద్వనజ విహారలోల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('జే', 'U'), ('తు', '|'), ('లం', 'U'), ('దు', '|'), ('భ', '|'), ('వ', '|'), ('దం', 'U'), ('ఘ్రి', '|'), ('స', '|'), ('రో', 'U'), ('జ', '|'), ('యు', '|'), ('గం', 'U'), ('న', '|'), ('మా', 'U'), ('మి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('న', '|'), ('ము', '|'), ('న', '|'), ('సం', 'U'), ('స్మ', '|'), ('రా', 'U'), ('మి', '|'), ('య', '|'), ('ను', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('నిన్', 'U'), ('వ', '|'), ('రి', '|'), ('వ', 'U'), ('స్క', '|'), ('రో', 'U'), ('మ్య', '|'), ('హ', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('నం', 'U'), ('క', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('భ', 'U'), ('క్త', '|'), ('లో', 'U'), ('క', '|'), ('హృ', 'U'), ('ద్వ', '|'), ('న', '|'), ('జ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లో', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>"అరశుగిరి ప్రసాముదయానె భవద్గుణ వర్ణసల్పి నా
 కొరువని నేస్మరామి సురయేశ్వరురే గణవర్య" యంచు ని
@@ -2556,32 +2364,29 @@
 వర కరుణావిధేయ బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('శు', '|'), ('గి', '|'), ('రి', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ము', '|'), ('ద', '|'), ('యా', 'U'), ('నె', '|'), ('భ', '|'), ('వ', 'U'), ('ద్గు', '|'), ('ణ', '|'), ('వ', 'U'), ('ర్ణ', '|'), ('స', 'U'), ('ల్పి', '|'), ('నా', 'U'), ('కొ', '|'), ('రు', '|'), ('వ', '|'), ('ని', '|'), ('నే', 'U'), ('స్మ', '|'), ('రా', 'U'), ('మి', '|'), ('సు', '|'), ('ర', '|'), ('యే', 'U'), ('శ్వ', '|'), ('రు', '|'), ('రే', 'U'), ('గ', '|'), ('ణ', '|'), ('వ', 'U'), ('ర్య', '|'), ('యం', 'U'), ('చు', '|'), ('ని', 'U'), ('ట్ల', '|'), ('రు', '|'), ('దు', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('నం', 'U'), ('క', '|'), ('న', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ని', 'U'), ('న్ను', '|'), ('మ', 'U'), ('న్మ', '|'), ('నో', 'U'), ('వ', '|'), ('ర', '|'), ('క', '|'), ('రు', '|'), ('ణా', 'U'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>"వాయువు వొందు యీవిగతవావ అమా పరహంబ భౌ
 న్యాయ విధేయమీశతరి యన్యన బాణు కళాభి" దంచు 'వా
@@ -2589,32 +2394,29 @@
 వా యమిబృంద వంద్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('వా', 'U'), ('యు', '|'), ('వు', '|'), ('వొం', 'U'), ('దు', '|'), ('యీ', 'U'), ('వి', '|'), ('గ', '|'), ('త', '|'), ('వా', 'U'), ('వ', '|'), ('అ', '|'), ('మా', 'U'), ('ప', '|'), ('ర', '|'), ('హం', 'U'), ('బ', '|'), ('భౌ', 'U'), ('న్యా', 'U'), ('య', '|'), ('వి', '|'), ('ధే', 'U'), ('య', '|'), ('మీ', 'U'), ('శ', '|'), ('త', '|'), ('రి', '|'), ('య', 'U'), ('న్య', '|'), ('న', '|'), ('బా', 'U'), ('ణు', '|'), ('క', '|'), ('ళా', 'U'), ('భి', '|'), ('దం', 'U'), ('చు', '|'), ('వా', 'U'), ('గ్దే', 'U'), ('య', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('దె', 'U'), ('ల్ల', '|'), ('ము', '|'), ('ని', 'U'), ('న్ను', '|'), ('న', '|'), ('లం', 'U'), ('క', '|'), ('రిం', 'U'), ('తు', '|'), ('దే', 'U'), ('వా', 'U'), ('య', '|'), ('మి', '|'), ('బృం', 'U'), ('ద', '|'), ('వం', 'U'), ('ద్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>హాడువె దామహార సదినంఘ్రియుగ భ్రమగొండు సద్గుణా
 మాడు వదర్చనంబిడె సమగ్రనుతిత్వయి సత్క్రియన్‌ దగన్‌
@@ -2622,32 +2424,29 @@
 పాడిగ నివ్వటిల్ల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('హా', 'U'), ('డు', '|'), ('వె', '|'), ('దా', 'U'), ('మ', '|'), ('హా', 'U'), ('ర', '|'), ('స', '|'), ('ది', '|'), ('నం', 'U'), ('ఘ్రి', '|'), ('యు', '|'), ('గ', 'U'), ('భ్ర', '|'), ('మ', '|'), ('గొం', 'U'), ('డు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('మా', 'U'), ('డు', '|'), ('వ', '|'), ('ద', 'U'), ('ర్చ', '|'), ('నం', 'U'), ('బి', '|'), ('డె', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('ను', '|'), ('తి', 'U'), ('త్వ', '|'), ('యి', '|'), ('స', 'U'), ('త్క్రి', '|'), ('యన్', 'U'), ('ద', '|'), ('గన్', 'U'), ('గూ', 'U'), ('ఢ', '|'), ('మ', '|'), ('ణి', 'U'), ('ప్ర', '|'), ('వా', 'U'), ('ళ', '|'), ('ము', '|'), ('న', '|'), ('గో', 'U'), ('రి', '|'), ('ను', '|'), ('తిం', 'U'), ('తు', '|'), ('ను', '|'), ('సం', 'U'), ('చి', '|'), ('తా', 'U'), ('ర్థ', '|'), ('ముల్', 'U'), ('పా', 'U'), ('డి', '|'), ('గ', '|'), ('ని', 'U'), ('వ్వ', '|'), ('టి', 'U'), ('ల్ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>బలుపొడ తోలు చీరయును పాపసరుల్‌ గిలుపాడు కన్ను వె
 న్నెల తలఁ జేఁదు కుత్తుకయు నిండినవేలుపుటేఱు పల్గు పూ
@@ -2655,32 +2454,29 @@
 వలపు మదిన్‌ దలిర్ప బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('లు', '|'), ('పొ', '|'), ('డ', '|'), ('తో', 'U'), ('లు', '|'), ('చీ', 'U'), ('ర', '|'), ('యు', '|'), ('ను', '|'), ('పా', 'U'), ('ప', '|'), ('స', '|'), ('రుల్', 'U'), ('గి', '|'), ('లు', '|'), ('పా', 'U'), ('డు', '|'), ('క', 'U'), ('న్ను', '|'), ('వె', 'U'), ('న్నె', '|'), ('ల', '|'), ('త', '|'), ('ల', '|'), ('జే', 'U'), ('దు', '|'), ('కు', 'U'), ('త్తు', '|'), ('క', '|'), ('యు', '|'), ('నిం', 'U'), ('డి', '|'), ('న', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('టే', 'U'), ('ఱు', '|'), ('ప', 'U'), ('ల్గు', '|'), ('పూ', 'U'), ('స', '|'), ('లు', '|'), ('గ', '|'), ('ల', '|'), ('ఱే', 'U'), ('ని', '|'), ('లెం', 'U'), ('క', '|'), ('వ', '|'), ('ని', '|'), ('జా', 'U'), ('ను', '|'), ('దె', '|'), ('నుం', 'U'), ('గు', '|'), ('న', '|'), ('వి', 'U'), ('న్న', '|'), ('విం', 'U'), ('చె', '|'), ('దన్', 'U'), ('వ', '|'), ('ల', '|'), ('పు', '|'), ('మ', '|'), ('దిన్', 'U'), ('ద', '|'), ('లి', 'U'), ('ర్ప', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>తిరువడి నెమ్మనంబునను నే హృదయేశ్వర కింపరీయ తాం
 బరి కరితంబు రాణి నిను బాహిరిఁ బోలుట శాసితాహ తా
@@ -2688,32 +2484,29 @@
 వరద వివేకశీల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('తి', '|'), ('రు', '|'), ('వ', '|'), ('డి', '|'), ('నె', 'U'), ('మ్మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('నే', 'U'), ('హృ', '|'), ('ద', '|'), ('యే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('కిం', 'U'), ('ప', '|'), ('రీ', 'U'), ('య', '|'), ('తాం', 'U'), ('బ', '|'), ('రి', '|'), ('క', '|'), ('రి', '|'), ('తం', 'U'), ('బు', '|'), ('రా', 'U'), ('ణి', '|'), ('ని', '|'), ('ను', '|'), ('బా', 'U'), ('హి', '|'), ('రి', '|'), ('బో', 'U'), ('లు', '|'), ('ట', '|'), ('శా', 'U'), ('సి', '|'), ('తా', 'U'), ('హ', '|'), ('తా', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('నె', '|'), ('గి', 'U'), ('ల్లె', '|'), ('యం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('బె', 'U'), ('క్కు', '|'), ('భా', 'U'), ('ష', '|'), ('లన్', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('వి', '|'), ('వే', 'U'), ('క', '|'), ('శీ', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>సన్నుత జంగమాగమము స్వాతిజలంబులు భక్తనిమ్నగం
 జెన్నుగ నీదు చూడ్కులను చిప్పల జొన్నలు ముత్తియంబులై
@@ -2721,32 +2514,29 @@
 శ్వన్నుతులన్‌ భజింతు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('స', 'U'), ('న్ను', '|'), ('త', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('గ', '|'), ('మ', '|'), ('ము', 'U'), ('స్వా', 'U'), ('తి', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('భ', 'U'), ('క్త', '|'), ('ని', 'U'), ('మ్న', '|'), ('గం', 'U'), ('జె', 'U'), ('న్ను', '|'), ('గ', '|'), ('నీ', 'U'), ('దు', '|'), ('చూ', 'U'), ('డ్కు', '|'), ('ల', '|'), ('ను', '|'), ('చి', 'U'), ('ప్ప', '|'), ('ల', '|'), ('జొ', 'U'), ('న్న', '|'), ('లు', '|'), ('ము', 'U'), ('త్తి', '|'), ('యం', 'U'), ('బు', '|'), ('లై', 'U'), ('యు', 'U'), ('న్న', '|'), ('నొ', '|'), ('క', 'U'), ('య్య', '|'), ('మ్రు', 'U'), ('గ్గు', '|'), ('ని', '|'), ('య', '|'), ('మో', 'U'), ('న్న', '|'), ('తి', '|'), ('ని', 'U'), ('ల్పి', '|'), ('న', '|'), ('ధ', 'U'), ('న్యు', '|'), ('ని', 'U'), ('న్ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('న్ను', '|'), ('తు', '|'), ('లన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>బల్లహు నొద్దనున్న నినుఁ బట్టణవీధులఁ జల్లలమ్ము చో
 గొల్లతఁ జీరువాఱి కడుఁ గూర్మిమెయిన్‌ బసవా యనన్‌ భువిన్‌
@@ -2754,32 +2544,29 @@
 ద్వల్లభ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ల్ల', '|'), ('హు', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('ను', 'U'), ('న్న', '|'), ('ని', '|'), ('ను', '|'), ('బ', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('వీ', 'U'), ('ధు', '|'), ('ల', '|'), ('జ', 'U'), ('ల్ల', '|'), ('ల', 'U'), ('మ్ము', '|'), ('చో', 'U'), ('గొ', 'U'), ('ల్ల', '|'), ('త', '|'), ('జీ', 'U'), ('రు', '|'), ('వా', 'U'), ('ఱి', '|'), ('క', '|'), ('డు', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('మె', '|'), ('యిన్', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('య', '|'), ('నన్', 'U'), ('భు', '|'), ('విన్', 'U'), ('ద్రె', 'U'), ('ళ్ళ', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('ప', 'U'), ('ట్టి', '|'), ('న', '|'), ('య', '|'), ('తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('ర్వ', '|'), ('గ', '|'), ('తై', 'U'), ('క', '|'), ('భా', 'U'), ('వ', '|'), ('మ', 'U'), ('ద్వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>వేఁడిన మిండ జంగమము వెక్కసమందగఁ దత్సభాస్థలి
 న్నాఁడట నారి వల్వొలువ నైజపుమానము దూలకుండఁగాఁ
@@ -2787,32 +2574,29 @@
 వాఁడఁ జుమయ్య జియ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('వే', 'U'), ('డి', '|'), ('న', '|'), ('మిం', 'U'), ('డ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ము', '|'), ('వె', 'U'), ('క్క', '|'), ('స', '|'), ('మం', 'U'), ('ద', '|'), ('గ', '|'), ('ద', 'U'), ('త్స', '|'), ('భా', 'U'), ('స్థ', '|'), ('లి', 'U'), ('న్నా', 'U'), ('డ', '|'), ('ట', '|'), ('నా', 'U'), ('రి', '|'), ('వ', 'U'), ('ల్వొ', '|'), ('లు', '|'), ('వ', '|'), ('నై', 'U'), ('జ', '|'), ('పు', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('దూ', 'U'), ('ల', '|'), ('కుం', 'U'), ('డ', '|'), ('గా', 'U'), ('బో', 'U'), ('డి', '|'), ('మి', '|'), ('బ', 'U'), ('ట్టు', '|'), ('పు', 'U'), ('ట్ట', '|'), ('ము', '|'), ('లు', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('లు', '|'), ('పె', 'U'), ('ట్టి', '|'), ('న', '|'), ('పు', 'U'), ('ణ్య', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('నీ', 'U'), ('వా', 'U'), ('డ', '|'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('జి', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>అరయఁగ సిద్ధరాము రజతాద్రిపయిన్‌ బసవాఖ్యు నిన్నుఁ బే
 రరులున జంగమాజ్ఞ మెయినారయ నప్పుడు భక్తిపెంపు సొం
@@ -2820,32 +2604,29 @@
 స్వరుఁడగు నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('య', '|'), ('గ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('రా', 'U'), ('ము', '|'), ('ర', '|'), ('జ', '|'), ('తా', 'U'), ('ద్రి', '|'), ('ప', '|'), ('యిన్', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('ఖ్యు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బే', 'U'), ('ర', '|'), ('రు', '|'), ('లు', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('జ్ఞ', '|'), ('మె', '|'), ('యి', '|'), ('నా', 'U'), ('ర', '|'), ('య', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('భ', 'U'), ('క్తి', '|'), ('పెం', 'U'), ('పు', '|'), ('సొం', 'U'), ('ప', '|'), ('రు', '|'), ('దు', '|'), ('గ', '|'), ('బా', 'U'), ('ర్వ', '|'), ('తీ', 'U'), ('శు', '|'), ('హృ', '|'), ('ద', '|'), ('యాం', 'U'), ('బు', '|'), ('జ', '|'), ('క', 'U'), ('ర్ణి', '|'), ('క', '|'), ('న', 'U'), ('త్త', '|'), ('మి', 'U'), ('ల్లు', '|'), ('భా', 'U'), ('స్వ', '|'), ('రు', '|'), ('డ', '|'), ('గు', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>వర్ణవిహీనుఁడంచు ద్విజవర్గము దా గళమెత్తి పల్కుడున్‌
 వర్ణములెల్లఁజూడ శివనాగయగారి కరంబులందు స
@@ -2853,32 +2634,29 @@
 వర్ణము నేఁజుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('ర్ణ', '|'), ('వి', '|'), ('హీ', 'U'), ('ను', '|'), ('డం', 'U'), ('చు', 'U'), ('ద్వి', '|'), ('జ', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('దా', 'U'), ('గ', '|'), ('ళ', '|'), ('మె', 'U'), ('త్తి', '|'), ('ప', 'U'), ('ల్కు', '|'), ('డున్', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('లె', 'U'), ('ల్ల', '|'), ('జూ', 'U'), ('డ', '|'), ('శి', '|'), ('వ', '|'), ('నా', 'U'), ('గ', '|'), ('య', '|'), ('గా', 'U'), ('రి', '|'), ('క', '|'), ('రం', 'U'), ('బు', '|'), ('లం', 'U'), ('దు', '|'), ('స', 'U'), ('ద్వ', 'U'), ('ర్ణు', '|'), ('డి', '|'), ('తం', 'U'), ('డ', '|'), ('నా', 'U'), ('న', '|'), ('మృ', '|'), ('త', '|'), ('ధా', 'U'), ('ర', '|'), ('లు', '|'), ('చూ', 'U'), ('పి', '|'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('రూ', 'U'), ('ఢ', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('నే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>బిజ్జలు నర్థమంతయు బ్రీతిగ జంగమకోటికిచ్చె నా
 నజ్జగతీశ్వరుండడుగ, నక్షయ బండరువా క్షణంబులో
@@ -2886,32 +2664,29 @@
 ద్వజ్జన నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('బి', 'U'), ('జ్జ', '|'), ('లు', '|'), ('న', 'U'), ('ర్థ', '|'), ('మం', 'U'), ('త', '|'), ('యు', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('కి', 'U'), ('చ్చె', '|'), ('నా', 'U'), ('న', 'U'), ('జ్జ', '|'), ('గ', '|'), ('తీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డ', '|'), ('డు', '|'), ('గ', '|'), ('న', 'U'), ('క్ష', '|'), ('య', '|'), ('బం', 'U'), ('డ', '|'), ('రు', '|'), ('వా', 'U'), ('క్ష', '|'), ('ణం', 'U'), ('బు', '|'), ('లో', 'U'), ('ని', 'U'), ('జ్జ', '|'), ('గ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('జో', 'U'), ('ద్య', '|'), ('ప', '|'), ('డ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('లిం', 'U'), ('గ', '|'), ('స', '|'), ('ద', 'U'), ('ర్థ', '|'), ('న', '|'), ('మ్ర', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('జ్జ', '|'), ('న', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>ఉరు శివయోగనిద్ర మెయినున్న తఱిన్‌ ఫణిహారి యేఁగుడున్‌
 మరచి చనంగ జంగమసమన్వితమై మును బ్రాణమేగి యు
@@ -2919,32 +2694,29 @@
 వరవుఁడ నేఁజుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('రు', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గ', '|'), ('ని', '|'), ('ద్ర', '|'), ('మె', '|'), ('యి', '|'), ('ను', 'U'), ('న్న', '|'), ('త', '|'), ('ఱిన్', 'U'), ('ఫ', '|'), ('ణి', '|'), ('హా', 'U'), ('రి', '|'), ('యే', 'U'), ('గు', '|'), ('డున్', 'U'), ('మ', '|'), ('ర', '|'), ('చి', '|'), ('చ', '|'), ('నం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('స', '|'), ('మ', 'U'), ('న్వి', '|'), ('త', '|'), ('మై', 'U'), ('ము', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('మే', 'U'), ('గి', '|'), ('యు', 'U'), ('ద్ధు', '|'), ('ర', '|'), ('గ', '|'), ('తి', '|'), ('వా', 'U'), ('రు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('ట', '|'), ('యు', '|'), ('దో', 'U'), ('డ', '|'), ('నె', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('త్మ', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('డ', '|'), ('నే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>సంగయదేవుఁడర్థి నొక జంగమమై చనుదెంచి వేఁడ ను
 ప్పొంగి లలాటలోచనము భోరున నద్దము వట్టి చూపుడున్‌
@@ -2952,32 +2724,29 @@
 వంగడ మేఁజుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('సం', 'U'), ('గ', '|'), ('య', '|'), ('దే', 'U'), ('వు', '|'), ('డ', 'U'), ('ర్థి', '|'), ('నొ', '|'), ('క', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('మై', 'U'), ('చ', '|'), ('ను', '|'), ('దెం', 'U'), ('చి', '|'), ('వే', 'U'), ('డ', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గి', '|'), ('ల', '|'), ('లా', 'U'), ('ట', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('ము', '|'), ('భో', 'U'), ('రు', '|'), ('న', '|'), ('న', 'U'), ('ద్ద', '|'), ('ము', '|'), ('వ', 'U'), ('ట్టి', '|'), ('చూ', 'U'), ('పు', '|'), ('డున్', 'U'), ('జెం', 'U'), ('గి', '|'), ('య', '|'), ('దృ', 'U'), ('శ్యు', '|'), ('డై', 'U'), ('న', '|'), ('శి', '|'), ('వు', '|'), ('జే', 'U'), ('కొ', '|'), ('ని', '|'), ('యా', 'U'), ('ర్చి', '|'), ('న', '|'), ('య', 'U'), ('ప్ర', '|'), ('త', 'U'), ('ర్క్య', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>కర్ణవతంసమీక పెనఁగన్‌ సతిచెక్కిలి వ్రేయుడున్‌ మహా
 తూర్ణతఁజెంది జంగమము దో స్థలమెత్తి పసిండియాకు సం
@@ -2985,32 +2754,29 @@
 వర్ణము నేఁజుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('క', 'U'), ('ర్ణ', '|'), ('వ', '|'), ('తం', 'U'), ('స', '|'), ('మీ', 'U'), ('క', '|'), ('పె', '|'), ('న', '|'), ('గన్', 'U'), ('స', '|'), ('తి', '|'), ('చె', 'U'), ('క్కి', '|'), ('లి', 'U'), ('వ్రే', 'U'), ('యు', '|'), ('డున్', 'U'), ('మ', '|'), ('హా', 'U'), ('తూ', 'U'), ('ర్ణ', '|'), ('త', '|'), ('జెం', 'U'), ('ది', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('ము', '|'), ('దో', 'U'), ('స్థ', '|'), ('ల', '|'), ('మె', 'U'), ('త్తి', '|'), ('ప', '|'), ('సిం', 'U'), ('డి', '|'), ('యా', 'U'), ('కు', '|'), ('సం', 'U'), ('పూ', 'U'), ('ర్ణ', '|'), ('ని', '|'), ('కృ', 'U'), ('ష్ట', '|'), ('భ', 'U'), ('క్తి', '|'), ('మె', '|'), ('యి', '|'), ('బొ', 'U'), ('ల్పు', '|'), ('గ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('న', '|'), ('ని', 'U'), ('ష్ప్ర', '|'), ('పం', 'U'), ('చ', '|'), ('నీ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('నే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>శృంగి పురోగమాఖిల విశేషవిషంబులు గూర్చి మండుచున్‌
 బొంగి భుగిల్లు భుగ్గురను భూరివిషాగ్ని నిషాదులార్తులై
@@ -3018,32 +2784,29 @@
 వంగడమేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!	7</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('శృం', 'U'), ('గి', '|'), ('పు', '|'), ('రో', 'U'), ('గ', '|'), ('మా', 'U'), ('ఖి', '|'), ('ల', '|'), ('వి', '|'), ('శే', 'U'), ('ష', '|'), ('వి', '|'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('గూ', 'U'), ('ర్చి', '|'), ('మం', 'U'), ('డు', '|'), ('చున్', 'U'), ('బొం', 'U'), ('గి', '|'), ('భు', '|'), ('గి', 'U'), ('ల్లు', '|'), ('భు', 'U'), ('గ్గు', '|'), ('ర', '|'), ('ను', '|'), ('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('షా', 'U'), ('గ్ని', '|'), ('ని', '|'), ('షా', 'U'), ('దు', '|'), ('లా', 'U'), ('ర్తు', '|'), ('లై', 'U'), ('చెం', 'U'), ('గి', '|'), ('చ', '|'), ('నన్', 'U'), ('శి', '|'), ('వా', 'U'), ('ర్పి', '|'), ('త', '|'), ('ము', '|'), ('చే', 'U'), ('సి', '|'), ('భు', '|'), ('జిం', 'U'), ('చి', '|'), ('న', '|'), ('సు', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>చిత్తజవైరి విక్రమముఁ జెప్పకు చెప్పకు త్రావనోడి తాఁ
 గుత్తుక నిల్పెనంచుఁ గడు గ్రూరతరంబగు కాలకూటమున్‌
@@ -3051,32 +2814,29 @@
 స్వత్తమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('చి', 'U'), ('త్త', '|'), ('జ', '|'), ('వై', 'U'), ('రి', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('ము', '|'), ('జె', 'U'), ('ప్ప', '|'), ('కు', '|'), ('చె', 'U'), ('ప్ప', '|'), ('కు', 'U'), ('త్రా', 'U'), ('వ', '|'), ('నో', 'U'), ('డి', '|'), ('తా', 'U'), ('గు', 'U'), ('త్తు', '|'), ('క', '|'), ('ని', 'U'), ('ల్పె', '|'), ('నం', 'U'), ('చు', '|'), ('గ', '|'), ('డు', 'U'), ('గ్రూ', 'U'), ('ర', '|'), ('త', '|'), ('రం', 'U'), ('బ', '|'), ('గు', '|'), ('కా', 'U'), ('ల', '|'), ('కూ', 'U'), ('ట', '|'), ('మున్', 'U'), ('గు', 'U'), ('త్తు', '|'), ('క', '|'), ('బం', 'U'), ('టి', 'U'), ('గ్రో', 'U'), ('లి', '|'), ('న', '|'), ('య', '|'), ('కుం', 'U'), ('ఠి', '|'), ('త', '|'), ('వి', 'U'), ('క్ర', '|'), ('మ', '|'), ('చ', 'U'), ('క్ర', '|'), ('వ', 'U'), ('ర్తి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్త', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>తంగెటిజున్ను, ముంగటి నిధానము, పండిన కల్పవల్లి, ముం
 గొంగున ముత్తియంబనఁగ, గూర్మి మనంబునఁ దొంగలింపగా
@@ -3084,32 +2844,29 @@
 వంగడమేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('తం', 'U'), ('గె', '|'), ('టి', '|'), ('జు', 'U'), ('న్ను', '|'), ('ముం', 'U'), ('గ', '|'), ('టి', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('ము', '|'), ('పం', 'U'), ('డి', '|'), ('న', '|'), ('క', 'U'), ('ల్ప', '|'), ('వ', 'U'), ('ల్లి', '|'), ('ముం', 'U'), ('గొం', 'U'), ('గు', '|'), ('న', '|'), ('ము', 'U'), ('త్తి', '|'), ('యం', 'U'), ('బ', '|'), ('న', '|'), ('గ', '|'), ('గూ', 'U'), ('ర్మి', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('దొం', 'U'), ('గ', '|'), ('లిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('క', 'U'), ('ర్చ', '|'), ('న', '|'), ('లు', '|'), ('స', 'U'), ('ల్పు', '|'), ('చు', '|'), ('ను', 'U'), ('న్న', '|'), ('య', '|'), ('గ', 'U'), ('ణ్య', '|'), ('పు', 'U'), ('ణ్య', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>భీమగజంబు డీకొనిన బిట్టరఁజంపుడు బిజ్జలేంద్రుఁడు
 ద్దామతఁ దక్కి మ్రొక్కుటయుఁ దత్కరినెత్తిన విక్రమోద్ధతుం
@@ -3117,32 +2874,29 @@
 స్వామివి నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('భీ', 'U'), ('మ', '|'), ('గ', '|'), ('జం', 'U'), ('బు', '|'), ('డీ', 'U'), ('కొ', '|'), ('ని', '|'), ('న', '|'), ('బి', 'U'), ('ట్ట', '|'), ('ర', '|'), ('జం', 'U'), ('పు', '|'), ('డు', '|'), ('బి', 'U'), ('జ్జ', '|'), ('లేం', 'U'), ('ద్రు', '|'), ('డు', 'U'), ('ద్దా', 'U'), ('మ', '|'), ('త', '|'), ('ద', 'U'), ('క్కి', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('ట', '|'), ('యు', '|'), ('ద', 'U'), ('త్క', '|'), ('రి', '|'), ('నె', 'U'), ('త్తి', '|'), ('న', '|'), ('వి', 'U'), ('క్ర', '|'), ('మో', 'U'), ('ద్ధ', '|'), ('తుం', 'U'), ('డా', 'U'), ('మ', '|'), ('డి', '|'), ('వా', 'U'), ('లు', '|'), ('మా', 'U'), ('చ', '|'), ('య', '|'), ('కు', '|'), ('న', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('నా', 'U'), ('స్వా', 'U'), ('మి', '|'), ('వి', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>శంకదలిర్చ నెంతయు వెసన్‌ బరదైవ పతంగ కోట్లకున్‌
 బింకముతోడ ఫాలతట భీమవిలోచన వహ్ని నేర్చు నా
@@ -3150,32 +2904,29 @@
 వంకను ద్రిప్పుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('శం', 'U'), ('క', '|'), ('ద', '|'), ('లి', 'U'), ('ర్చ', '|'), ('నెం', 'U'), ('త', '|'), ('యు', '|'), ('వె', '|'), ('సన్', 'U'), ('బ', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ప', '|'), ('తం', 'U'), ('గ', '|'), ('కో', 'U'), ('ట్ల', '|'), ('కున్', 'U'), ('బిం', 'U'), ('క', '|'), ('ము', '|'), ('తో', 'U'), ('డ', '|'), ('ఫా', 'U'), ('ల', '|'), ('త', '|'), ('ట', '|'), ('భీ', 'U'), ('మ', '|'), ('వి', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('వ', 'U'), ('హ్ని', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నా', 'U'), ('శం', 'U'), ('క', '|'), ('ర', '|'), ('దా', 'U'), ('సి', '|'), ('దే', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('స', 'U'), ('ద్భ', '|'), ('టు', '|'), ('డం', 'U'), ('చు', '|'), ('ను', '|'), ('తిం', 'U'), ('చు', '|'), ('న', 'U'), ('న్ను', '|'), ('నీ', 'U'), ('వం', 'U'), ('క', '|'), ('ను', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>ఏఁడులు నూఱటంచు శ్రుతులెన్నఁగ శ్రీగిరిమీఁద నాఱునూ
 ఱేఁడులు సంచరించు సకలేశ్వర దేవర మాదిరాజు నా
@@ -3183,32 +2934,29 @@
 వ్వాఁడులణంపుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('డు', '|'), ('లు', '|'), ('నూ', 'U'), ('ఱ', '|'), ('టం', 'U'), ('చు', 'U'), ('శ్రు', '|'), ('తు', '|'), ('లె', 'U'), ('న్న', '|'), ('గ', 'U'), ('శ్రీ', 'U'), ('గి', '|'), ('రి', '|'), ('మీ', 'U'), ('ద', '|'), ('నా', 'U'), ('ఱు', '|'), ('నూ', 'U'), ('ఱే', 'U'), ('డు', '|'), ('లు', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('చు', '|'), ('స', '|'), ('క', '|'), ('లే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('మా', 'U'), ('ది', '|'), ('రా', 'U'), ('జు', '|'), ('నా', 'U'), ('నే', 'U'), ('డు', '|'), ('లు', '|'), ('నూ', 'U'), ('ఱు', '|'), ('మ', 'U'), ('న్న', '|'), ('భు', '|'), ('వి', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('కా', 'U'), ('ల', '|'), ('మ', '|'), ('హో', 'U'), ('గ్ర', '|'), ('దృ', 'U'), ('ష్టి', 'U'), ('క్రొ', 'U'), ('వ్వా', 'U'), ('డు', '|'), ('ల', '|'), ('ణం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>సూత్రము దప్పి గొఱ్ఱె గుడిఁ జొచ్చిన మిండనిఁ జంపి సాక్షిగా
 నో త్రిపురాంతకా! యనుచు నో యని పిల్చిన యల్ల సద్యశః
@@ -3216,32 +2964,29 @@
 వా త్రిజగత్పవిత్ర! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('సూ', 'U'), ('త్ర', '|'), ('ము', '|'), ('ద', 'U'), ('ప్పి', '|'), ('గొ', 'U'), ('ఱ్ఱె', '|'), ('గు', '|'), ('డి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మిం', 'U'), ('డ', '|'), ('ని', '|'), ('జం', 'U'), ('పి', '|'), ('సా', 'U'), ('క్షి', '|'), ('గా', 'U'), ('నో', 'U'), ('త్రి', '|'), ('పు', '|'), ('రాం', 'U'), ('త', '|'), ('కా', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('య', 'U'), ('ల్ల', '|'), ('స', 'U'), ('ద్య', '|'), ('శః', 'U'), ('పా', 'U'), ('త్రు', '|'), ('డు', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', 'U'), ('య్య', '|'), ('కు', '|'), ('ను', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('స', '|'), ('ఖుం', 'U'), ('డ', '|'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('దే', 'U'), ('వా', 'U'), ('త్రి', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>ఒక్కఁడె రుద్రుఁడన్న శ్రుతులొల్లక ప్రేలు పురాణభట్టులన్‌
 వ్రక్కలుసేసి తత్తనువు వారిలు బ్రువ్వులుగాఁగఁ జూచు నా
@@ -3249,32 +2994,29 @@
 ద్వాక్కలికాసమూహి బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('ఒ', 'U'), ('క్క', '|'), ('డె', '|'), ('రు', '|'), ('ద్రు', '|'), ('డ', 'U'), ('న్న', 'U'), ('శ్రు', '|'), ('తు', '|'), ('లొ', 'U'), ('ల్ల', '|'), ('క', 'U'), ('ప్రే', 'U'), ('లు', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('భ', 'U'), ('ట్టు', '|'), ('లన్', 'U'), ('వ్ర', 'U'), ('క్క', '|'), ('లు', '|'), ('సే', 'U'), ('సి', '|'), ('త', 'U'), ('త్త', '|'), ('ను', '|'), ('వు', '|'), ('వా', 'U'), ('రి', '|'), ('లు', 'U'), ('బ్రు', 'U'), ('వ్వు', '|'), ('లు', '|'), ('గా', 'U'), ('గ', '|'), ('జూ', 'U'), ('చు', '|'), ('నా', 'U'), ('క', 'U'), ('క్క', '|'), ('య', '|'), ('గా', 'U'), ('రి', '|'), ('బి', 'U'), ('డ్డ', '|'), ('డ', '|'), ('న', '|'), ('గా', 'U'), ('ను', '|'), ('తి', '|'), ('కె', 'U'), ('క్కి', '|'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('న్తు', '|'), ('మ', 'U'), ('ద్వా', 'U'), ('క్క', '|'), ('లి', '|'), ('కా', 'U'), ('స', '|'), ('మూ', 'U'), ('హి', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>డంభమయాన్య దర్శన విడంబనుఁ డష్టమదాపహారి యా
 శుంభ దుదాత్తకీర్తి యగు చోడలదేవర బాచిరాజు వి
@@ -3282,32 +3024,29 @@
 శ్వంభర శంభుమూర్తి! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('డం', 'U'), ('భ', '|'), ('మ', '|'), ('యా', 'U'), ('న్య', '|'), ('ద', 'U'), ('ర్శ', '|'), ('న', '|'), ('వి', '|'), ('డం', 'U'), ('బ', '|'), ('ను', '|'), ('డ', 'U'), ('ష్ట', '|'), ('మ', '|'), ('దా', 'U'), ('ప', '|'), ('హా', 'U'), ('రి', '|'), ('యా', 'U'), ('శుం', 'U'), ('భ', '|'), ('దు', '|'), ('దా', 'U'), ('త్త', '|'), ('కీ', 'U'), ('ర్తి', '|'), ('య', '|'), ('గు', '|'), ('చో', 'U'), ('డ', '|'), ('ల', '|'), ('దే', 'U'), ('వ', '|'), ('ర', '|'), ('బా', 'U'), ('చి', '|'), ('రా', 'U'), ('జు', '|'), ('వి', 'U'), ('స్రం', 'U'), ('భ', '|'), ('స', '|'), ('ఖుం', 'U'), ('డ', '|'), ('వీ', 'U'), ('వ', '|'), ('ని', 'U'), ('ప్ర', '|'), ('శం', 'U'), ('స', '|'), ('యొ', '|'), ('న', 'U'), ('ర్తు', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్ర', '|'), ('పూ', 'U'), ('త', '|'), ('వి', 'U'), ('శ్వం', 'U'), ('భ', '|'), ('ర', '|'), ('శం', 'U'), ('భు', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">	దీవ్రము నీ మహామహిమ దివ్యము నీ మహనీయ విక్రమం
 బప్రతిమంబు నీ చరిత మాద్యము నీ నిజరూపమంచు న
@@ -3315,32 +3054,29 @@
 వా ప్రణుతింతు నిన్ను బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('దీ', 'U'), ('వ్ర', '|'), ('ము', '|'), ('నీ', 'U'), ('మ', '|'), ('హా', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('ది', 'U'), ('వ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('య', '|'), ('వి', 'U'), ('క్ర', '|'), ('మం', 'U'), ('బ', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మం', 'U'), ('బు', '|'), ('నీ', 'U'), ('చ', '|'), ('రి', '|'), ('త', '|'), ('మా', 'U'), ('ద్య', '|'), ('ము', '|'), ('నీ', 'U'), ('ని', '|'), ('జ', '|'), ('రూ', 'U'), ('ప', '|'), ('మం', 'U'), ('చు', '|'), ('న', 'U'), ('ల్ల', 'U'), ('ప్ర', '|'), ('భు', '|'), ('డ', 'U'), ('ర్జి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('ప', '|'), ('లా', 'U'), ('ల', '|'), ('న', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('చు', 'U'), ('న్న', '|'), ('దే', 'U'), ('వా', 'U'), ('ప్ర', '|'), ('ణు', '|'), ('తిం', 'U'), ('తు', '|'), ('ని', 'U'), ('న్ను', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>మేదురభక్తి నీశ్వరుఁడు మెచ్చగ జిహ్వయె పళ్ళెరంబు గా
 నాదటఁబ్రాచి యంబలి సమర్పణ చేసి పొగడ్తకెక్కు నా
@@ -3348,32 +3084,29 @@
 స్వాదిత సుప్రసాద! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('మే', 'U'), ('దు', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('నీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('జి', 'U'), ('హ్వ', '|'), ('యె', '|'), ('ప', 'U'), ('ళ్ళె', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('ద', '|'), ('ట', 'U'), ('బ్రా', 'U'), ('చి', '|'), ('యం', 'U'), ('బ', '|'), ('లి', '|'), ('స', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('చే', 'U'), ('సి', '|'), ('పొ', '|'), ('గ', 'U'), ('డ్త', '|'), ('కె', 'U'), ('క్కు', '|'), ('నా', 'U'), ('మా', 'U'), ('ద', '|'), ('ర', '|'), ('చె', 'U'), ('న్న', '|'), ('లిం', 'U'), ('గ', '|'), ('ము', '|'), ('కు', '|'), ('మా', 'U'), ('రు', '|'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('స్వా', 'U'), ('ది', '|'), ('త', '|'), ('సు', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>బల్లిదుఁడై గణాధిపుల పాదజలంబులు కట్టెమోపుపైఁ
 జల్లికడాని గావుడును జంగమకోటికిఁ బంచి యిచ్చుచున్‌
@@ -3381,32 +3114,29 @@
 ద్వల్లభ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('బ', 'U'), ('ల్లి', '|'), ('దు', '|'), ('డై', 'U'), ('గ', '|'), ('ణా', 'U'), ('ధి', '|'), ('పు', '|'), ('ల', '|'), ('పా', 'U'), ('ద', '|'), ('జ', '|'), ('లం', 'U'), ('బు', '|'), ('లు', '|'), ('క', 'U'), ('ట్టె', '|'), ('మో', 'U'), ('పు', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లి', '|'), ('క', '|'), ('డా', 'U'), ('ని', '|'), ('గా', 'U'), ('వు', '|'), ('డు', '|'), ('ను', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', '|'), ('కి', '|'), ('బం', 'U'), ('చి', '|'), ('యి', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('మొ', 'U'), ('ల్ల', '|'), ('పు', '|'), ('భ', 'U'), ('క్తి', '|'), ('బే', 'U'), ('ర్కొ', '|'), ('ని', '|'), ('న', '|'), ('మో', 'U'), ('ళి', '|'), ('గ', '|'), ('మా', 'U'), ('ర', '|'), ('య', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('బం', 'U'), ('ట', '|'), ('మ', 'U'), ('ద్వ', 'U'), ('ల్ల', '|'), ('భ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>భీకర రుద్రనేత్ర శిఖిఁ బెద్దఁగఁ జేయఁగ వీరభద్రు ను
 ద్రేక గజంబునా నితర దేవతలన్‌ బడఁదాఁకు నుద్ధతుం
@@ -3414,32 +3144,29 @@
 వా కరుణింపుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('భీ', 'U'), ('క', '|'), ('ర', '|'), ('రు', '|'), ('ద్ర', '|'), ('నే', 'U'), ('త్ర', '|'), ('శి', '|'), ('ఖి', '|'), ('బె', 'U'), ('ద్ద', '|'), ('గ', '|'), ('జే', 'U'), ('య', '|'), ('గ', '|'), ('వీ', 'U'), ('ర', '|'), ('భ', '|'), ('ద్రు', '|'), ('ను', '|'), ('ద్రే', 'U'), ('క', '|'), ('గ', '|'), ('జం', 'U'), ('బు', '|'), ('నా', 'U'), ('ని', '|'), ('త', '|'), ('ర', '|'), ('దే', 'U'), ('వ', '|'), ('త', '|'), ('లన్', 'U'), ('బ', '|'), ('డ', '|'), ('దా', 'U'), ('కు', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('తుం', 'U'), ('డా', 'U'), ('క', '|'), ('లి', '|'), ('కే', 'U'), ('త', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('య', '|'), ('కు', '|'), ('న', '|'), ('ర్మి', '|'), ('లి', '|'), ('భృ', 'U'), ('త్యు', '|'), ('డ', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('దే', 'U'), ('వా', 'U'), ('క', '|'), ('రు', '|'), ('ణిం', 'U'), ('పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>పసిగ మెయిన్‌ వృషాధిపుని ప్రాణము జంగమకోటి ప్రాణముల్‌
 మసలక యెత్తుచున్‌ భువన మాన్యచరిత్రతఁ దేజరిల్లు న
@@ -3447,32 +3174,29 @@
 న్వసిగొని ప్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('సి', '|'), ('గ', '|'), ('మె', '|'), ('యిన్', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పు', '|'), ('ని', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ము', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('కో', 'U'), ('టి', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('ముల్', 'U'), ('మ', '|'), ('స', '|'), ('ల', '|'), ('క', '|'), ('యె', 'U'), ('త్తు', '|'), ('చున్', 'U'), ('భు', '|'), ('వ', '|'), ('న', '|'), ('మా', 'U'), ('న్య', '|'), ('చ', '|'), ('రి', 'U'), ('త్ర', '|'), ('త', '|'), ('దే', 'U'), ('జ', '|'), ('రి', 'U'), ('ల్లు', '|'), ('న', 'U'), ('మ్ము', '|'), ('సి', '|'), ('డి', '|'), ('గ', '|'), ('చౌ', 'U'), ('డ', '|'), ('రా', 'U'), ('య', '|'), ('ని', '|'), ('కి', '|'), ('ము', 'U'), ('న్ని', '|'), ('టి', '|'), ('భృ', 'U'), ('త్యు', '|'), ('డ', '|'), ('ని', 'U'), ('న్భ', '|'), ('జిం', 'U'), ('తు', '|'), ('న', 'U'), ('న్వ', '|'), ('సి', '|'), ('గొ', '|'), ('ని', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>ఎన్నఁగ జంగమంబుఁ దన యింటికి నెప్పుడు వచ్చునప్డు దాఁ
 గన్నము వెట్టితెచ్చి యధికంబగు నర్థము వానికిచ్చు నా
@@ -3480,32 +3204,29 @@
 శ్వన్నుతులన్‌ భజింతు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('ఎ', 'U'), ('న్న', '|'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మం', 'U'), ('బు', '|'), ('ద', '|'), ('న', '|'), ('యిం', 'U'), ('టి', '|'), ('కి', '|'), ('నె', 'U'), ('ప్పు', '|'), ('డు', '|'), ('వ', 'U'), ('చ్చు', '|'), ('న', 'U'), ('ప్డు', '|'), ('దా', 'U'), ('గ', 'U'), ('న్న', '|'), ('ము', '|'), ('వె', 'U'), ('ట్టి', '|'), ('తె', 'U'), ('చ్చి', '|'), ('య', '|'), ('ధి', '|'), ('కం', 'U'), ('బ', '|'), ('గు', '|'), ('న', 'U'), ('ర్థ', '|'), ('ము', '|'), ('వా', 'U'), ('ని', '|'), ('కి', 'U'), ('చ్చు', '|'), ('నా', 'U'), ('క', 'U'), ('న్న', '|'), ('డ', 'U'), ('బ్ర', 'U'), ('హ్మ', '|'), ('సం', 'U'), ('య', '|'), ('మి', '|'), ('కి', '|'), ('గా', 'U'), ('ది', '|'), ('లి', '|'), ('భృ', 'U'), ('త్యు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('న్ను', '|'), ('తు', '|'), ('లన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>అసురవృత్తిఁ జూపఱు భయంపడి మ్రొక్కఁ బ్రసాద వహ్నిచే
 భూసురులిండు లన్నియును బొగ్గుల ప్రోఁకలుఁ సేయు ధూత సం
@@ -3513,32 +3234,29 @@
 వాస! శరణ్యమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('సు', '|'), ('ర', '|'), ('వృ', 'U'), ('త్తి', '|'), ('జూ', 'U'), ('ప', '|'), ('ఱు', '|'), ('భ', '|'), ('యం', 'U'), ('ప', '|'), ('డి', '|'), ('మ్రొ', 'U'), ('క్క', 'U'), ('బ్ర', '|'), ('సా', 'U'), ('ద', '|'), ('వ', 'U'), ('హ్ని', '|'), ('చే', 'U'), ('భూ', 'U'), ('సు', '|'), ('రు', '|'), ('లిం', 'U'), ('డు', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('ను', '|'), ('బొ', 'U'), ('గ్గు', '|'), ('ల', 'U'), ('ప్రో', 'U'), ('క', '|'), ('లు', '|'), ('సే', 'U'), ('యు', '|'), ('ధూ', 'U'), ('త', '|'), ('సం', 'U'), ('త్రా', 'U'), ('సు', '|'), ('ల', '|'), ('బి', 'U'), ('బ్బ', '|'), ('బా', 'U'), ('చ', '|'), ('య', '|'), ('ల', '|'), ('దా', 'U'), ('సి', '|'), ('య', '|'), ('నన్', 'U'), ('వి', '|'), ('ల', '|'), ('సి', 'U'), ('ల్లు', '|'), ('స', 'U'), ('ద్గు', '|'), ('ణా', 'U'), ('వా', 'U'), ('స', '|'), ('శ', '|'), ('ర', 'U'), ('ణ్య', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>సుంకపుఁ బైఁడి భక్తులకుఁ జూరలు విడ్వఁ బసిండి క్రాగులన్‌
 శంకరుఁ బూటవెట్టి నరనాయకుచేతను మ్రొక్కుగొన్న యా
@@ -3546,32 +3264,29 @@
 వంకకుఁ ద్రిప్పుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('సుం', 'U'), ('క', '|'), ('పు', '|'), ('బై', 'U'), ('డి', '|'), ('భ', 'U'), ('క్తు', '|'), ('ల', '|'), ('కు', '|'), ('జూ', 'U'), ('ర', '|'), ('లు', '|'), ('వి', 'U'), ('డ్వ', '|'), ('బ', '|'), ('సిం', 'U'), ('డి', 'U'), ('క్రా', 'U'), ('గు', '|'), ('లన్', 'U'), ('శం', 'U'), ('క', '|'), ('రు', '|'), ('బూ', 'U'), ('ట', '|'), ('వె', 'U'), ('ట్టి', '|'), ('న', '|'), ('ర', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('చే', 'U'), ('త', '|'), ('ను', '|'), ('మ్రొ', 'U'), ('క్కు', '|'), ('గొ', 'U'), ('న్న', '|'), ('యా', 'U'), ('సుం', 'U'), ('క', '|'), ('ర', '|'), ('బం', 'U'), ('కి', '|'), ('దే', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('సూ', 'U'), ('ను', '|'), ('డ', '|'), ('వై', 'U'), ('న', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ది', '|'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('వం', 'U'), ('క', '|'), ('కు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>దివ్యవిమానపంక్తి దివిఁ దేజరిలన్‌ రజతాద్రికిన్‌ జగ
 త్సేవ్యముగాఁగ మున్ను దనచే మృతిబొందు మృగాళిఁ బుచ్చు సం
@@ -3579,32 +3294,29 @@
 వా వ్యసనాది దూర బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('ది', 'U'), ('వ్య', '|'), ('వి', '|'), ('మా', 'U'), ('న', '|'), ('పం', 'U'), ('క్తి', '|'), ('ది', '|'), ('వి', '|'), ('దే', 'U'), ('జ', '|'), ('రి', '|'), ('లన్', 'U'), ('ర', '|'), ('జ', '|'), ('తా', 'U'), ('ద్రి', '|'), ('కిన్', 'U'), ('జ', '|'), ('గ', 'U'), ('త్సే', 'U'), ('వ్య', '|'), ('ము', '|'), ('గా', 'U'), ('గ', '|'), ('ము', 'U'), ('న్ను', '|'), ('ద', '|'), ('న', '|'), ('చే', 'U'), ('మృ', '|'), ('తి', '|'), ('బొం', 'U'), ('దు', '|'), ('మృ', '|'), ('గా', 'U'), ('ళి', '|'), ('బు', 'U'), ('చ్చు', '|'), ('సం', 'U'), ('భా', 'U'), ('వ్యు', '|'), ('డు', '|'), ('తె', 'U'), ('న్గు', '|'), ('జొ', 'U'), ('మ్మ', '|'), ('య', '|'), ('కు', 'U'), ('బ్రా', 'U'), ('ణ', '|'), ('స', '|'), ('ఖుం', 'U'), ('డ', '|'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గొ', 'U'), ('ల్తు', '|'), ('దే', 'U'), ('వా', 'U'), ('వ్య', '|'), ('స', '|'), ('నా', 'U'), ('ది', '|'), ('దూ', 'U'), ('ర', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>చెన్నగు ప్రాణ లింగరతిచేగ ప్రసాదము పుట్టినిల్లు న
 త్యున్నత భక్తిసీమ శివయోగ సమగ్రత కల్మియైన మా
@@ -3612,32 +3324,29 @@
 శ్వన్నుతులన్‌ భజింతు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('చె', 'U'), ('న్న', '|'), ('గు', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('లిం', 'U'), ('గ', '|'), ('ర', '|'), ('తి', '|'), ('చే', 'U'), ('గ', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ద', '|'), ('ము', '|'), ('పు', 'U'), ('ట్టి', '|'), ('ని', 'U'), ('ల్లు', '|'), ('న', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('సీ', 'U'), ('మ', '|'), ('శి', '|'), ('వ', '|'), ('యో', 'U'), ('గ', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('త', '|'), ('క', 'U'), ('ల్మి', '|'), ('యై', 'U'), ('న', '|'), ('మా', 'U'), ('య', 'U'), ('న్న', '|'), ('కు', '|'), ('నా', 'U'), ('ది', '|'), ('చె', 'U'), ('న్న', '|'), ('బ', '|'), ('స', '|'), ('వ', 'U'), ('న్న', '|'), ('కు', '|'), ('స', 'U'), ('ద్గు', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('న్ను', '|'), ('తు', '|'), ('లన్', 'U'), ('భ', '|'), ('జిం', 'U'), ('తు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>అడరఁగఁ గళ్ళుచేసి రుచిరాన్నము లాదటనంది యిచ్చుచోఁ
 గడిఁగడి నందుకొంచు నతికాంక్షమెయి\న్‌ శివుఁడారగింపఁగా
@@ -3645,32 +3354,29 @@
 వడుగఁ జుమయ్య జియ్య! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('డ', '|'), ('ర', '|'), ('గ', '|'), ('గ', 'U'), ('ళ్ళు', '|'), ('చే', 'U'), ('సి', '|'), ('రు', '|'), ('చి', '|'), ('రా', 'U'), ('న్న', '|'), ('ము', '|'), ('లా', 'U'), ('ద', '|'), ('ట', '|'), ('నం', 'U'), ('ది', '|'), ('యి', 'U'), ('చ్చు', '|'), ('చో', 'U'), ('గ', '|'), ('డి', '|'), ('గ', '|'), ('డి', '|'), ('నం', 'U'), ('దు', '|'), ('కొం', 'U'), ('చు', '|'), ('న', '|'), ('తి', '|'), ('కాం', 'U'), ('క్ష', '|'), ('మె', '|'), ('యిన్', 'U'), ('శి', '|'), ('వు', '|'), ('డా', 'U'), ('ర', '|'), ('గిం', 'U'), ('ప', '|'), ('గా', 'U'), ('స', '|'), ('డి', '|'), ('న', '|'), ('ను', '|'), ('భ', 'U'), ('క్తు', '|'), ('డా', 'U'), ('సు', '|'), ('రి', '|'), ('య', '|'), ('చౌ', 'U'), ('డ', '|'), ('య', '|'), ('గా', 'U'), ('రి', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ది', '|'), ('దే', 'U'), ('వ', '|'), ('నీ', 'U'), ('వ', '|'), ('డు', '|'), ('గ', '|'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('జి', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>జంగమమారగింపక విషంబును మీకు ననర్హమంచుఁ దా
 ముంగల నారగించిన సముద్ధతభక్తియుతుండు సత్ప్రసా
@@ -3678,32 +3384,29 @@
 వంగడమేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('జం', 'U'), ('గ', '|'), ('మ', '|'), ('మా', 'U'), ('ర', '|'), ('గిం', 'U'), ('ప', '|'), ('క', '|'), ('వి', '|'), ('షం', 'U'), ('బు', '|'), ('ను', '|'), ('మీ', 'U'), ('కు', '|'), ('న', '|'), ('న', 'U'), ('ర్హ', '|'), ('మం', 'U'), ('చు', '|'), ('దా', 'U'), ('ముం', 'U'), ('గ', '|'), ('ల', '|'), ('నా', 'U'), ('ర', '|'), ('గిం', 'U'), ('చి', '|'), ('న', '|'), ('స', '|'), ('ము', 'U'), ('ద్ధ', '|'), ('త', '|'), ('భ', 'U'), ('క్తి', '|'), ('యు', '|'), ('తుం', 'U'), ('డు', '|'), ('స', 'U'), ('త్ప్ర', '|'), ('సా', 'U'), ('దాం', 'U'), ('గు', '|'), ('డు', '|'), ('శృం', 'U'), ('గి', '|'), ('బొ', 'U'), ('ప్ప', '|'), ('య', '|'), ('కు', '|'), ('న', 'U'), ('గ్గ', '|'), ('ల', '|'), ('మై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('నీ', 'U'), ('వం', 'U'), ('గ', '|'), ('డ', '|'), ('మే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>కొఱటను లేఁత పత్తిరియ గొడ్డునఁ బాలును రేయి జంగమం
 బఱిముఱివేఁడినన్‌ బడసి యా క్షణమాత్రన యిచ్చినట్టి యా
@@ -3711,32 +3414,29 @@
 వఱలఁగఁ బ్రస్తుతింతు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('కొ', '|'), ('ఱ', '|'), ('ట', '|'), ('ను', '|'), ('లే', 'U'), ('త', '|'), ('ప', 'U'), ('త్తి', '|'), ('రి', '|'), ('య', '|'), ('గొ', 'U'), ('డ్డు', '|'), ('న', '|'), ('బా', 'U'), ('లు', '|'), ('ను', '|'), ('రే', 'U'), ('యి', '|'), ('జం', 'U'), ('గ', '|'), ('మం', 'U'), ('బ', '|'), ('ఱి', '|'), ('ము', '|'), ('ఱి', '|'), ('వే', 'U'), ('డి', '|'), ('నన్', 'U'), ('బ', '|'), ('డ', '|'), ('సి', '|'), ('యా', 'U'), ('క్ష', '|'), ('ణ', '|'), ('మా', 'U'), ('త్ర', '|'), ('న', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('మొ', '|'), ('ఱ', '|'), ('ట', '|'), ('ద', '|'), ('వం', 'U'), ('క', '|'), ('దే', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('ము', 'U'), ('ద్దు', '|'), ('త', '|'), ('నూ', 'U'), ('జు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('ని', 'U'), ('న్ను', '|'), ('నే', 'U'), ('వ', '|'), ('ఱ', '|'), ('ల', '|'), ('గ', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('తు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>అనయము భక్తులీడ్యకులులంచును వేదములా ద్విజోత్తముల్‌
 విన నుతియింపఁ గుక్కఁ జదివించిన హావినహళ్ళికళ్ళి దే
@@ -3744,32 +3444,29 @@
 ద్వనజవిహారలోల బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('య', '|'), ('ము', '|'), ('భ', 'U'), ('క్తు', '|'), ('లీ', 'U'), ('డ్య', '|'), ('కు', '|'), ('లు', '|'), ('లం', 'U'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('ద', '|'), ('ము', '|'), ('లా', 'U'), ('ద్వి', '|'), ('జో', 'U'), ('త్త', '|'), ('ముల్', 'U'), ('వి', '|'), ('న', '|'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('ప', '|'), ('గు', 'U'), ('క్క', '|'), ('జ', '|'), ('ది', '|'), ('విం', 'U'), ('చి', '|'), ('న', '|'), ('హా', 'U'), ('వి', '|'), ('న', '|'), ('హ', 'U'), ('ళ్ళి', '|'), ('క', 'U'), ('ళ్ళి', '|'), ('దే', 'U'), ('వు', '|'), ('న', '|'), ('కు', '|'), ('న', '|'), ('నుం', 'U'), ('గు', '|'), ('వా', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('యు', 'U'), ('త్సు', '|'), ('క', '|'), ('తన్', 'U'), ('ను', '|'), ('తి', '|'), ('యిం', 'U'), ('తు', '|'), ('భ', 'U'), ('క్త', '|'), ('హృ', 'U'), ('ద్వ', '|'), ('న', '|'), ('జ', '|'), ('వి', '|'), ('హా', 'U'), ('ర', '|'), ('లో', 'U'), ('ల', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">	భక్తుని మ్రింగఁ జంప మును భర్గునకున్‌ జిఱుతొండనంబికి\న్‌
 యుక్తమెయంచు వారిపయి నొక్కట నుద్ధత ఘంట వ్రేసి యు
@@ -3777,32 +3474,29 @@
 వ్యక్తమ! నీవె దిక్కు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('భ', 'U'), ('క్తు', '|'), ('ని', '|'), ('మ్రిం', 'U'), ('గ', '|'), ('జం', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('భ', 'U'), ('ర్గు', '|'), ('న', '|'), ('కున్', 'U'), ('జి', '|'), ('ఱు', '|'), ('తొం', 'U'), ('డ', '|'), ('నం', 'U'), ('బి', '|'), ('కిన్', 'U'), ('యు', 'U'), ('క్త', '|'), ('మె', '|'), ('యం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('ప', '|'), ('యి', '|'), ('నొ', 'U'), ('క్క', '|'), ('ట', '|'), ('ను', 'U'), ('ద్ధ', '|'), ('త', '|'), ('ఘం', 'U'), ('ట', 'U'), ('వ్రే', 'U'), ('సి', '|'), ('యు', '|'), ('ద్రి', 'U'), ('క్త', '|'), ('త', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('న', '|'), ('ల', '|'), ('రు', '|'), ('ది', 'U'), ('ట్ట', '|'), ('హ', '|'), ('లా', 'U'), ('యు', '|'), ('ధు', '|'), ('క', 'U'), ('ట్ట', '|'), ('నుం', 'U'), ('గ', 'U'), ('ప్ర', 'U'), ('వ్య', 'U'), ('క్త', '|'), ('మ', '|'), ('నీ', 'U'), ('వె', '|'), ('ది', 'U'), ('క్కు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>ధర నురులింగమూర్తి ధ్వజదండముగా మలమచ్చతోక శ్రీ
 కరముగ భక్తికిం బడగఁగా శివుగర్భముఁ జొచ్చి పొల్చు మా
@@ -3810,32 +3504,29 @@
 వరవుఁడనేఁ జుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('ధ', '|'), ('ర', '|'), ('ను', '|'), ('రు', '|'), ('లిం', 'U'), ('గ', '|'), ('మూ', 'U'), ('ర్తి', 'U'), ('ధ్వ', '|'), ('జ', '|'), ('దం', 'U'), ('డ', '|'), ('ము', '|'), ('గా', 'U'), ('మ', '|'), ('ల', '|'), ('మ', 'U'), ('చ్చ', '|'), ('తో', 'U'), ('క', 'U'), ('శ్రీ', 'U'), ('క', '|'), ('ర', '|'), ('ము', '|'), ('గ', '|'), ('భ', 'U'), ('క్తి', '|'), ('కిం', 'U'), ('బ', '|'), ('డ', '|'), ('గ', '|'), ('గా', 'U'), ('శి', '|'), ('వు', '|'), ('గ', 'U'), ('ర్భ', '|'), ('ము', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('పొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('య', '|'), ('రి', '|'), ('య', '|'), ('మ', '|'), ('రా', 'U'), ('జు', '|'), ('గా', 'U'), ('రి', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('ప్తు', '|'), ('డ', '|'), ('వై', 'U'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వ', '|'), ('నీ', 'U'), ('వ', '|'), ('ర', '|'), ('వు', '|'), ('డ', '|'), ('నే', 'U'), ('జు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>దండితవాదియై శివుఁడ దైవముగా కని కన్నులిచ్చి తా
 నిండు మనంబుతో నిలువు నిద్దపుఁగన్నులు దాల్చి పొల్చు మా
@@ -3843,32 +3534,29 @@
 వ్వండు నుతింప నేర్చు బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('దం', 'U'), ('డి', '|'), ('త', '|'), ('వా', 'U'), ('ది', '|'), ('యై', 'U'), ('శి', '|'), ('వు', '|'), ('డ', '|'), ('దై', 'U'), ('వ', '|'), ('ము', '|'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('క', 'U'), ('న్ను', '|'), ('లి', 'U'), ('చ్చి', '|'), ('తా', 'U'), ('నిం', 'U'), ('డు', '|'), ('మ', '|'), ('నం', 'U'), ('బు', '|'), ('తో', 'U'), ('ని', '|'), ('లు', '|'), ('వు', '|'), ('ని', 'U'), ('ద్ద', '|'), ('పు', '|'), ('గ', 'U'), ('న్ను', '|'), ('లు', '|'), ('దా', 'U'), ('ల్చి', '|'), ('పొ', 'U'), ('ల్చు', '|'), ('మా', 'U'), ('పం', 'U'), ('డి', '|'), ('త', '|'), ('మ', 'U'), ('ల్లి', '|'), ('కా', 'U'), ('ర్జు', '|'), ('ను', '|'), ('డు', 'U'), ('ప్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('నే', 'U'), ('ర్చు', '|'), ('ని', 'U'), ('న్ను', '|'), ('నె', 'U'), ('వ్వం', 'U'), ('డు', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', '|'), ('నే', 'U'), ('ర్చు', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>వసుమతిఁ బేరుకొన్న నరువత్తురు మువ్వురి కూర్మిబంట! షో
 డసుల సుతుండ! తేరసుల దక్కిన భృత్యుఁడ! వీరలాది గా
@@ -3876,32 +3564,29 @@
 వసిగొని ప్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('సు', '|'), ('మ', '|'), ('తి', '|'), ('బే', 'U'), ('రు', '|'), ('కొ', 'U'), ('న్న', '|'), ('న', '|'), ('రు', '|'), ('వ', 'U'), ('త్తు', '|'), ('రు', '|'), ('ము', 'U'), ('వ్వు', '|'), ('రి', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('బం', 'U'), ('ట', '|'), ('షో', 'U'), ('డ', '|'), ('సు', '|'), ('ల', '|'), ('సు', '|'), ('తుం', 'U'), ('డ', '|'), ('తే', 'U'), ('ర', '|'), ('సు', '|'), ('ల', '|'), ('ద', 'U'), ('క్కి', '|'), ('న', '|'), ('భృ', 'U'), ('త్యు', '|'), ('డ', '|'), ('వీ', 'U'), ('ర', '|'), ('లా', 'U'), ('ది', '|'), ('గా', 'U'), ('నె', '|'), ('స', '|'), ('గు', '|'), ('మ', '|'), ('హా', 'U'), ('ను', '|'), ('భా', 'U'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('న', '|'), ('న', 'U'), ('ర్గ', '|'), ('ళ', '|'), ('మై', 'U'), ('న', '|'), ('భ', 'U'), ('క్తి', '|'), ('నన్', 'U'), ('వ', '|'), ('సి', '|'), ('గొ', '|'), ('ని', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>బసవ నిధానమా! బసవ భవ్యనిధీ! బసవామృతాంబుధీ!
 బసవ మహానిధీ! బసవ భర్మగిరీ! బసవామరద్రుమా!
@@ -3909,32 +3594,29 @@
 వసిగని ప్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('స', '|'), ('వ', '|'), ('ని', '|'), ('ధా', 'U'), ('న', '|'), ('మా', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('భ', 'U'), ('వ్య', '|'), ('ని', '|'), ('ధీ', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('మృ', '|'), ('తాం', 'U'), ('బు', '|'), ('ధీ', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('భ', '|'), ('ర్మ', '|'), ('గి', '|'), ('రీ', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('మ', '|'), ('ర', '|'), ('ద్రు', '|'), ('మా', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('మ', '|'), ('హా', 'U'), ('బ', '|'), ('లీ', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('బం', 'U'), ('డ', '|'), ('రు', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('న్మ', '|'), ('ణీ', 'U'), ('వ', '|'), ('సి', '|'), ('గ', '|'), ('ని', 'U'), ('ప్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>నా యొడయండ! నా విభుఁడ! నా హృదయేశ్వర! నా మనోరమా!
 నా యిలవేల్ప! నా వరుఁడ! నా గురులింగమ! నాదు జంగమా!
@@ -3942,32 +3624,29 @@
 వా యమిబృందవంద్య! బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('యొ', '|'), ('డ', '|'), ('యం', 'U'), ('డ', '|'), ('నా', 'U'), ('వి', '|'), ('భు', '|'), ('డ', '|'), ('నా', 'U'), ('హృ', '|'), ('ద', '|'), ('యే', 'U'), ('శ్వ', '|'), ('ర', '|'), ('నా', 'U'), ('మ', '|'), ('నో', 'U'), ('ర', '|'), ('మా', 'U'), ('నా', 'U'), ('యి', '|'), ('ల', '|'), ('వే', 'U'), ('ల్ప', '|'), ('నా', 'U'), ('వ', '|'), ('రు', '|'), ('డ', '|'), ('నా', 'U'), ('గు', '|'), ('రు', '|'), ('లిం', 'U'), ('గ', '|'), ('మ', '|'), ('నా', 'U'), ('దు', '|'), ('జం', 'U'), ('గ', '|'), ('మా', 'U'), ('నా', 'U'), ('య', '|'), ('ది', '|'), ('నా', 'U'), ('థ', '|'), ('నా', 'U'), ('వ', '|'), ('ర', '|'), ('ద', '|'), ('న', 'U'), ('న్ను', '|'), ('గృ', '|'), ('పా', 'U'), ('మ', '|'), ('తి', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('దే', 'U'), ('వా', 'U'), ('య', '|'), ('మి', '|'), ('బృం', 'U'), ('ద', '|'), ('వం', 'U'), ('ద్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>vutpalamaala</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>vutpalamaala</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>నోరికి వచ్చినట్టు నిను నూఱువిధంబులఁ బ్రస్తుతింతు నే
 నేరుతు నేరఁ బొమ్మనక నీపయి నొచ్చెములేని మచ్చికన్‌
@@ -3975,32 +3654,29 @@
 వారని కూర్మి పేర్మి బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('నో', 'U'), ('రి', '|'), ('కి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', 'U'), ('ట్టు', '|'), ('ని', '|'), ('ను', '|'), ('నూ', 'U'), ('ఱు', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('ల', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తిం', 'U'), ('తు', '|'), ('నే', 'U'), ('నే', 'U'), ('రు', '|'), ('తు', '|'), ('నే', 'U'), ('ర', '|'), ('బొ', 'U'), ('మ్మ', '|'), ('న', '|'), ('క', '|'), ('నీ', 'U'), ('ప', '|'), ('యి', '|'), ('నొ', 'U'), ('చ్చె', '|'), ('ము', '|'), ('లే', 'U'), ('ని', '|'), ('మ', 'U'), ('చ్చి', '|'), ('కన్', 'U'), ('గా', 'U'), ('ర', '|'), ('వ', '|'), ('మం', 'U'), ('ద', '|'), ('మ', 'U'), ('త్ప్ర', '|'), ('ణు', '|'), ('తి', '|'), ('గై', 'U'), ('కొ', '|'), ('న', '|'), ('గా', 'U'), ('ద', '|'), ('గు', '|'), ('గౌ', 'U'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వా', 'U'), ('ర', '|'), ('ని', '|'), ('కూ', 'U'), ('ర్మి', '|'), ('పే', 'U'), ('ర్మి', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">	బసవఁడు ప్రీతిఁ గైకొనియె భక్తిమెయిన్‌ రచియించినాఁడ నే
 బసవపురాణమంచు మునుఁ బ్రస్తుతి సేయుదురట్లుగాన నీ
@@ -4008,32 +3684,29 @@
 వసిఁగొని బ్రోవుమయ్య బసవా! బసవా! బసవా! వృషాధిపా!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('స', '|'), ('వ', '|'), ('డు', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('గై', 'U'), ('కొ', '|'), ('ని', '|'), ('యె', '|'), ('భ', 'U'), ('క్తి', '|'), ('మె', '|'), ('యిన్', 'U'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('నా', 'U'), ('డ', '|'), ('నే', 'U'), ('బ', '|'), ('స', '|'), ('వ', '|'), ('పు', '|'), ('రా', 'U'), ('ణ', '|'), ('మం', 'U'), ('చు', '|'), ('ము', '|'), ('ను', 'U'), ('బ్ర', 'U'), ('స్తు', '|'), ('తి', '|'), ('సే', 'U'), ('యు', '|'), ('దు', '|'), ('ర', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('న', '|'), ('నీ', 'U'), ('య', '|'), ('స', '|'), ('మ', '|'), ('ద', '|'), ('యా', 'U'), ('ధు', '|'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('కు', '|'), ('నం', 'U'), ('కి', '|'), ('లి', '|'), ('పా', 'U'), ('టు', '|'), ('ఘ', '|'), ('టి', 'U'), ('ల్ల', '|'), ('కుం', 'U'), ('డ', '|'), ('నన్', 'U'), ('వ', '|'), ('సి', '|'), ('గొ', '|'), ('ని', 'U'), ('బ్రో', 'U'), ('వు', '|'), ('మ', 'U'), ('య్య', '|'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('బ', '|'), ('స', '|'), ('వా', 'U'), ('వృ', '|'), ('షా', 'U'), ('ధి', '|'), ('పా', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>champakamaala</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>champakamaala</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>అకుటిల లింగ జంగమ సమగ్రదయాకలిత ప్రసాది పా
 లకురికి సోమనాథుఁడతి లౌల్యమునన్‌ బసవన్న దండ నా
@@ -4041,17 +3714,17 @@
 రికి వినువారికిన్‌ గలుగు శ్రీయును నాయువు భుక్తిముక్తియున్‌</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>vrushadhipa</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
-        <is>
-          <t>vrushadhipa</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
         <is>
           <t>[('అ', '|'), ('కు', '|'), ('టి', '|'), ('ల', '|'), ('లిం', 'U'), ('గ', '|'), ('జం', 'U'), ('గ', '|'), ('మ', '|'), ('స', '|'), ('మ', 'U'), ('గ్ర', '|'), ('ద', '|'), ('యా', 'U'), ('క', '|'), ('లి', '|'), ('త', 'U'), ('ప్ర', '|'), ('సా', 'U'), ('ది', '|'), ('పా', 'U'), ('ల', '|'), ('కు', '|'), ('రి', '|'), ('కి', '|'), ('సో', 'U'), ('మ', '|'), ('నా', 'U'), ('థు', '|'), ('డ', '|'), ('తి', '|'), ('లౌ', 'U'), ('ల్య', '|'), ('ము', '|'), ('నన్', 'U'), ('బ', '|'), ('స', '|'), ('వ', 'U'), ('న్న', '|'), ('దం', 'U'), ('డ', '|'), ('నా', 'U'), ('య', '|'), ('కు', '|'), ('న', '|'), ('కు', '|'), ('నొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('శ', '|'), ('త', '|'), ('క', '|'), ('మ', 'U'), ('ర్ప', '|'), ('ణ', '|'), ('చే', 'U'), ('సె', '|'), ('న', '|'), ('లిన్', 'U'), ('బ', '|'), ('ఠిం', 'U'), ('చు', '|'), ('వా', 'U'), ('రి', '|'), ('కి', '|'), ('వి', '|'), ('ను', '|'), ('వా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('గ', '|'), ('లు', '|'), ('గు', 'U'), ('శ్రీ', 'U'), ('యు', '|'), ('ను', '|'), ('నా', 'U'), ('యు', '|'), ('వు', '|'), ('భు', 'U'), ('క్తి', '|'), ('ము', 'U'), ('క్తి', '|'), ('యున్', 'U')]</t>
         </is>
